--- a/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
+++ b/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\fct-unl\INFORMATICA\5th_sem\courses\ES\project\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint6\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AEDA1E-BD0C-4EC8-BE8B-8CD079626636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A226766-D548-4920-BB42-22F70D7DD9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart Sprint1" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha2" sheetId="7" r:id="rId2"/>
-    <sheet name="Burndown Chart Sprint2" sheetId="2" r:id="rId3"/>
-    <sheet name="Burndown Chart Sprint3" sheetId="3" r:id="rId4"/>
-    <sheet name="Burndown Chart Sprint4" sheetId="4" r:id="rId5"/>
-    <sheet name="Burndown Chart Sprint5" sheetId="5" r:id="rId6"/>
-    <sheet name="Burndown Chart Sprint6" sheetId="6" r:id="rId7"/>
+    <sheet name="Burndown Chart Sprint2" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown Chart Sprint3" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown Chart Sprint4" sheetId="4" r:id="rId4"/>
+    <sheet name="Burndown Chart Sprint5" sheetId="5" r:id="rId5"/>
+    <sheet name="Burndown Chart Sprint6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="118">
   <si>
     <t>Sprint 1 Burndown Chart</t>
   </si>
@@ -461,6 +460,24 @@
   <si>
     <t>Look into what a class diagram covering US2 would look like (liquid leak checking).</t>
   </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 4 Burndown Chart</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
 </sst>
 </file>
 
@@ -604,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1287,47 +1304,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1369,17 +1345,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,17 +1402,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1414,7 +1412,52 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1605,15 +1648,6 @@
     <xf numFmtId="164" fontId="3" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1623,43 +1657,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1671,16 +1675,38 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1733,7 +1759,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4625,10 +4651,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint6'!$D$38:$K$38</c:f>
+              <c:f>'Burndown Chart Sprint6'!$D$24:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4648,7 +4698,7 @@
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A4D4-4742-81A4-441B273627E2}"/>
+              <c16:uniqueId val="{00000000-E343-48C0-ACE3-350B2A067F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4726,17 +4776,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint6'!$D$39:$K$39</c:f>
+              <c:f>'Burndown Chart Sprint6'!$D$25:$K$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A4D4-4742-81A4-441B273627E2}"/>
+              <c16:uniqueId val="{00000001-E343-48C0-ACE3-350B2A067F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4789,17 +4863,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint6'!$D$40:$K$40</c:f>
+              <c:f>'Burndown Chart Sprint6'!$D$26:$K$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8571428571428541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A4D4-4742-81A4-441B273627E2}"/>
+              <c16:uniqueId val="{00000002-E343-48C0-ACE3-350B2A067F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4873,7 +4971,7 @@
         <c:axId val="1165773373"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16"/>
+          <c:max val="31"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5160,18 +5258,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1687286</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9639300" cy="4886325"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart">
+        <xdr:cNvPr id="4" name="Chart 3" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6275FD17-D533-4BF7-A893-F8C0FB6C9F43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8AFAC6-399A-464C-B52A-C3C3883393EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5412,50 +5510,50 @@
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="98" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -5500,8 +5598,8 @@
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5722,10 +5820,10 @@
       <c r="P11" s="24"/>
     </row>
     <row r="12" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="106"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="26">
         <v>0</v>
       </c>
@@ -5779,10 +5877,10 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="93"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="32">
         <f>SUM(D6:D12)</f>
         <v>14</v>
@@ -5837,10 +5935,10 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="95"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="39">
         <f>D13</f>
         <v>14</v>
@@ -6897,23 +6995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA02847-0711-498E-99DE-5C5B6511AE88}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6928,40 +7014,40 @@
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
+      <c r="E3" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="98" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -6991,8 +7077,8 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -7222,10 +7308,10 @@
       <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="106"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="26">
         <v>0</v>
       </c>
@@ -7259,10 +7345,10 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="93"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="32">
         <f>SUM(D6:D15)</f>
         <v>6.5</v>
@@ -7297,10 +7383,10 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="95"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="39">
         <f>D16</f>
         <v>6.5</v>
@@ -8333,12 +8419,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8352,40 +8438,40 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
+      <c r="E3" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="98" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -8414,8 +8500,8 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -8460,11 +8546,11 @@
         <v>0.1</v>
       </c>
       <c r="K6" s="16"/>
-      <c r="L6" s="108" t="str">
+      <c r="L6" s="103" t="str">
         <f t="shared" ref="L6:L37" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M6" s="109"/>
+      <c r="M6" s="104"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N37" si="1">SUM(E6:K6)</f>
         <v>0.1</v>
@@ -8495,11 +8581,11 @@
       <c r="I7" s="23"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="108" t="str">
+      <c r="L7" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M7" s="109"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8534,11 +8620,11 @@
       <c r="K8" s="22">
         <v>0.15</v>
       </c>
-      <c r="L8" s="108" t="str">
+      <c r="L8" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M8" s="109"/>
+      <c r="M8" s="104"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8571,11 +8657,11 @@
         <v>0.25</v>
       </c>
       <c r="K9" s="22"/>
-      <c r="L9" s="108" t="str">
+      <c r="L9" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M9" s="109"/>
+      <c r="M9" s="104"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8608,11 +8694,11 @@
         <v>0.25</v>
       </c>
       <c r="K10" s="22"/>
-      <c r="L10" s="108" t="str">
+      <c r="L10" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M10" s="109"/>
+      <c r="M10" s="104"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8645,11 +8731,11 @@
       <c r="K11" s="22">
         <v>0.25</v>
       </c>
-      <c r="L11" s="108" t="str">
+      <c r="L11" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M11" s="109"/>
+      <c r="M11" s="104"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8680,11 +8766,11 @@
         <v>0.25</v>
       </c>
       <c r="K12" s="22"/>
-      <c r="L12" s="108" t="str">
+      <c r="L12" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M12" s="109"/>
+      <c r="M12" s="104"/>
       <c r="N12" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8717,11 +8803,11 @@
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="108" t="str">
+      <c r="L13" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M13" s="109"/>
+      <c r="M13" s="104"/>
       <c r="N13" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8752,11 +8838,11 @@
       <c r="K14" s="22">
         <v>0.2</v>
       </c>
-      <c r="L14" s="108" t="str">
+      <c r="L14" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M14" s="109"/>
+      <c r="M14" s="104"/>
       <c r="N14" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -8789,11 +8875,11 @@
       <c r="K15" s="22">
         <v>0.2</v>
       </c>
-      <c r="L15" s="108" t="str">
+      <c r="L15" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M15" s="109"/>
+      <c r="M15" s="104"/>
       <c r="N15" s="44">
         <f t="shared" si="1"/>
         <v>0.45</v>
@@ -8826,11 +8912,11 @@
         <v>0.3</v>
       </c>
       <c r="K16" s="22"/>
-      <c r="L16" s="108" t="str">
+      <c r="L16" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M16" s="109"/>
+      <c r="M16" s="104"/>
       <c r="N16" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -8863,11 +8949,11 @@
       <c r="K17" s="22">
         <v>0.2</v>
       </c>
-      <c r="L17" s="108" t="str">
+      <c r="L17" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M17" s="109"/>
+      <c r="M17" s="104"/>
       <c r="N17" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -8896,11 +8982,11 @@
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="108" t="str">
+      <c r="L18" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M18" s="109"/>
+      <c r="M18" s="104"/>
       <c r="N18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8933,11 +9019,11 @@
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="108" t="str">
+      <c r="L19" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M19" s="109"/>
+      <c r="M19" s="104"/>
       <c r="N19" s="44">
         <f t="shared" si="1"/>
         <v>0.35</v>
@@ -8974,11 +9060,11 @@
       <c r="K20" s="22">
         <v>0.2</v>
       </c>
-      <c r="L20" s="108" t="str">
+      <c r="L20" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M20" s="109"/>
+      <c r="M20" s="104"/>
       <c r="N20" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9013,11 +9099,11 @@
       <c r="K21" s="22">
         <v>0.2</v>
       </c>
-      <c r="L21" s="108" t="str">
+      <c r="L21" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M21" s="109"/>
+      <c r="M21" s="104"/>
       <c r="N21" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9054,11 +9140,11 @@
       <c r="K22" s="22">
         <v>0.2</v>
       </c>
-      <c r="L22" s="108" t="str">
+      <c r="L22" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M22" s="109"/>
+      <c r="M22" s="104"/>
       <c r="N22" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9089,11 +9175,11 @@
       <c r="K23" s="22">
         <v>0.25</v>
       </c>
-      <c r="L23" s="108" t="str">
+      <c r="L23" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M23" s="109"/>
+      <c r="M23" s="104"/>
       <c r="N23" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -9122,11 +9208,11 @@
       <c r="I24" s="23"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="108" t="str">
+      <c r="L24" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M24" s="109"/>
+      <c r="M24" s="104"/>
       <c r="N24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9157,11 +9243,11 @@
       <c r="I25" s="23"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="108" t="str">
+      <c r="L25" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M25" s="109"/>
+      <c r="M25" s="104"/>
       <c r="N25" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -9194,11 +9280,11 @@
         <v>0.25</v>
       </c>
       <c r="K26" s="22"/>
-      <c r="L26" s="108" t="str">
+      <c r="L26" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M26" s="109"/>
+      <c r="M26" s="104"/>
       <c r="N26" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9233,11 +9319,11 @@
       <c r="K27" s="22">
         <v>0.1</v>
       </c>
-      <c r="L27" s="108" t="str">
+      <c r="L27" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M27" s="109"/>
+      <c r="M27" s="104"/>
       <c r="N27" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9272,11 +9358,11 @@
       <c r="K28" s="22">
         <v>0.1</v>
       </c>
-      <c r="L28" s="108" t="str">
+      <c r="L28" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M28" s="109"/>
+      <c r="M28" s="104"/>
       <c r="N28" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9307,11 +9393,11 @@
       <c r="K29" s="22">
         <v>0.2</v>
       </c>
-      <c r="L29" s="108" t="str">
+      <c r="L29" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M29" s="109"/>
+      <c r="M29" s="104"/>
       <c r="N29" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -9340,11 +9426,11 @@
       <c r="I30" s="23"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="108" t="str">
+      <c r="L30" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M30" s="109"/>
+      <c r="M30" s="104"/>
       <c r="N30" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9375,11 +9461,11 @@
       <c r="I31" s="23"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="108" t="str">
+      <c r="L31" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M31" s="109"/>
+      <c r="M31" s="104"/>
       <c r="N31" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -9412,11 +9498,11 @@
       <c r="K32" s="22">
         <v>0.15</v>
       </c>
-      <c r="L32" s="108" t="str">
+      <c r="L32" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M32" s="109"/>
+      <c r="M32" s="104"/>
       <c r="N32" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -9449,11 +9535,11 @@
       <c r="K33" s="49">
         <v>0.15</v>
       </c>
-      <c r="L33" s="108" t="str">
+      <c r="L33" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M33" s="109"/>
+      <c r="M33" s="104"/>
       <c r="N33" s="44">
         <f t="shared" si="1"/>
         <v>0.3</v>
@@ -9484,11 +9570,11 @@
       <c r="K34" s="49">
         <v>0.4</v>
       </c>
-      <c r="L34" s="108" t="str">
+      <c r="L34" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M34" s="109"/>
+      <c r="M34" s="104"/>
       <c r="N34" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -9517,11 +9603,11 @@
       <c r="I35" s="50"/>
       <c r="J35" s="51"/>
       <c r="K35" s="49"/>
-      <c r="L35" s="108" t="str">
+      <c r="L35" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M35" s="109"/>
+      <c r="M35" s="104"/>
       <c r="N35" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9550,11 +9636,11 @@
       <c r="I36" s="50"/>
       <c r="J36" s="51"/>
       <c r="K36" s="49"/>
-      <c r="L36" s="108" t="str">
+      <c r="L36" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M36" s="109"/>
+      <c r="M36" s="104"/>
       <c r="N36" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9585,11 +9671,11 @@
       </c>
       <c r="J37" s="51"/>
       <c r="K37" s="49"/>
-      <c r="L37" s="108" t="str">
+      <c r="L37" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M37" s="109"/>
+      <c r="M37" s="104"/>
       <c r="N37" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -9602,10 +9688,10 @@
       </c>
     </row>
     <row r="38" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="106"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="26">
         <v>0</v>
       </c>
@@ -9639,10 +9725,10 @@
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="93"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="32">
         <f>SUM(D6:D38)</f>
         <v>15.6</v>
@@ -9676,11 +9762,11 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="94" t="s">
+    <row r="40" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="95"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="39">
         <v>15.6</v>
       </c>
@@ -10749,12 +10835,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P988"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10768,40 +10854,40 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="B2" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
+      <c r="E3" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="98" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -10830,8 +10916,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -10879,11 +10965,11 @@
       <c r="I6" s="23"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="108" t="str">
+      <c r="L6" s="103" t="str">
         <f t="shared" ref="L6:L25" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M6" s="109"/>
+      <c r="M6" s="104"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N25" si="1">SUM(E6:K6)</f>
         <v>0.25</v>
@@ -10914,11 +11000,11 @@
         <v>0.25</v>
       </c>
       <c r="K7" s="22"/>
-      <c r="L7" s="108" t="str">
+      <c r="L7" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M7" s="109"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -10949,11 +11035,11 @@
       <c r="K8" s="22">
         <v>0.2</v>
       </c>
-      <c r="L8" s="108" t="str">
+      <c r="L8" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M8" s="109"/>
+      <c r="M8" s="104"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -10986,11 +11072,11 @@
       <c r="K9" s="22">
         <v>0.2</v>
       </c>
-      <c r="L9" s="108" t="str">
+      <c r="L9" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M9" s="109"/>
+      <c r="M9" s="104"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>0.45</v>
@@ -11023,11 +11109,11 @@
         <v>0.3</v>
       </c>
       <c r="K10" s="22"/>
-      <c r="L10" s="108" t="str">
+      <c r="L10" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M10" s="109"/>
+      <c r="M10" s="104"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -11060,11 +11146,11 @@
       <c r="K11" s="22">
         <v>0.2</v>
       </c>
-      <c r="L11" s="108" t="str">
+      <c r="L11" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M11" s="109"/>
+      <c r="M11" s="104"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -11093,11 +11179,11 @@
       <c r="I12" s="23"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="108" t="str">
+      <c r="L12" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M12" s="109"/>
+      <c r="M12" s="104"/>
       <c r="N12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11130,11 +11216,11 @@
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="108" t="str">
+      <c r="L13" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M13" s="109"/>
+      <c r="M13" s="104"/>
       <c r="N13" s="44">
         <f t="shared" si="1"/>
         <v>0.35</v>
@@ -11165,11 +11251,11 @@
       <c r="K14" s="22">
         <v>0.25</v>
       </c>
-      <c r="L14" s="108" t="str">
+      <c r="L14" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M14" s="109"/>
+      <c r="M14" s="104"/>
       <c r="N14" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -11198,11 +11284,11 @@
       <c r="I15" s="23"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="108" t="str">
+      <c r="L15" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M15" s="109"/>
+      <c r="M15" s="104"/>
       <c r="N15" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11233,11 +11319,11 @@
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="108" t="str">
+      <c r="L16" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M16" s="109"/>
+      <c r="M16" s="104"/>
       <c r="N16" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -11268,11 +11354,11 @@
       <c r="K17" s="22">
         <v>0.2</v>
       </c>
-      <c r="L17" s="108" t="str">
+      <c r="L17" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M17" s="109"/>
+      <c r="M17" s="104"/>
       <c r="N17" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -11301,11 +11387,11 @@
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="108" t="str">
+      <c r="L18" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M18" s="109"/>
+      <c r="M18" s="104"/>
       <c r="N18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11336,11 +11422,11 @@
       <c r="I19" s="23"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="108" t="str">
+      <c r="L19" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M19" s="109"/>
+      <c r="M19" s="104"/>
       <c r="N19" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -11373,11 +11459,11 @@
       <c r="K20" s="22">
         <v>0.15</v>
       </c>
-      <c r="L20" s="108" t="str">
+      <c r="L20" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M20" s="109"/>
+      <c r="M20" s="104"/>
       <c r="N20" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -11410,11 +11496,11 @@
       <c r="K21" s="49">
         <v>0.15</v>
       </c>
-      <c r="L21" s="108" t="str">
+      <c r="L21" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M21" s="109"/>
+      <c r="M21" s="104"/>
       <c r="N21" s="44">
         <f t="shared" si="1"/>
         <v>0.3</v>
@@ -11445,11 +11531,11 @@
       <c r="K22" s="49">
         <v>0.4</v>
       </c>
-      <c r="L22" s="108" t="str">
+      <c r="L22" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M22" s="109"/>
+      <c r="M22" s="104"/>
       <c r="N22" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -11478,11 +11564,11 @@
       <c r="I23" s="50"/>
       <c r="J23" s="51"/>
       <c r="K23" s="49"/>
-      <c r="L23" s="108" t="str">
+      <c r="L23" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M23" s="109"/>
+      <c r="M23" s="104"/>
       <c r="N23" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11511,11 +11597,11 @@
       <c r="I24" s="50"/>
       <c r="J24" s="51"/>
       <c r="K24" s="49"/>
-      <c r="L24" s="108" t="str">
+      <c r="L24" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M24" s="109"/>
+      <c r="M24" s="104"/>
       <c r="N24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11546,11 +11632,11 @@
       </c>
       <c r="J25" s="51"/>
       <c r="K25" s="49"/>
-      <c r="L25" s="108" t="str">
+      <c r="L25" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M25" s="109"/>
+      <c r="M25" s="104"/>
       <c r="N25" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -11563,10 +11649,10 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="106"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="26">
         <v>0</v>
       </c>
@@ -11600,10 +11686,10 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="93"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="32">
         <f>SUM(D6:D26)</f>
         <v>10</v>
@@ -11638,10 +11724,10 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="95"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="39">
         <v>15.6</v>
       </c>
@@ -12698,12 +12784,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF431CF1-8E16-45D5-A381-7331DD95E65F}">
   <dimension ref="B1:P976"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12717,40 +12803,40 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
+      <c r="E3" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="98" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -12779,8 +12865,8 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="102"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -12831,11 +12917,11 @@
         <v>0.5</v>
       </c>
       <c r="K6" s="22"/>
-      <c r="L6" s="108" t="str">
+      <c r="L6" s="103" t="str">
         <f t="shared" ref="L6:L10" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M6" s="109"/>
+      <c r="M6" s="104"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N10" si="1">SUM(E6:K6)</f>
         <v>2</v>
@@ -12868,11 +12954,11 @@
         <v>0.5</v>
       </c>
       <c r="K7" s="22"/>
-      <c r="L7" s="108" t="str">
+      <c r="L7" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M7" s="109"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -12907,11 +12993,11 @@
         <v>0.1</v>
       </c>
       <c r="K8" s="22"/>
-      <c r="L8" s="108" t="str">
+      <c r="L8" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M8" s="109"/>
+      <c r="M8" s="104"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -12938,11 +13024,11 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="108" t="str">
+      <c r="L9" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M9" s="109"/>
+      <c r="M9" s="104"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -12973,11 +13059,11 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="108" t="str">
+      <c r="L10" s="103" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M10" s="109"/>
+      <c r="M10" s="104"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -13012,11 +13098,11 @@
         <v>0.1</v>
       </c>
       <c r="K11" s="22"/>
-      <c r="L11" s="110" t="str">
+      <c r="L11" s="105" t="str">
         <f>IF(N11=0, "NOT STARTED",IF(N11&gt;D11, "ERROR TO MUCH WORK", IF(N11=D11, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M11" s="111"/>
+      <c r="M11" s="106"/>
       <c r="N11" s="44">
         <f>SUM(E11:K11)</f>
         <v>2</v>
@@ -13045,11 +13131,11 @@
       <c r="K12" s="22">
         <v>0.6</v>
       </c>
-      <c r="L12" s="108" t="str">
+      <c r="L12" s="103" t="str">
         <f t="shared" ref="L12" si="2">IF(N12=0, "NOT STARTED",IF(N12&gt;D12, "ERROR TO MUCH WORK", IF(N12=D12, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M12" s="109"/>
+      <c r="M12" s="104"/>
       <c r="N12" s="44">
         <f t="shared" ref="N12" si="3">SUM(E12:K12)</f>
         <v>1.6</v>
@@ -13076,11 +13162,11 @@
         <v>1</v>
       </c>
       <c r="K13" s="22"/>
-      <c r="L13" s="110" t="str">
+      <c r="L13" s="105" t="str">
         <f>IF(N13=0, "NOT STARTED",IF(N13&gt;D13, "ERROR TO MUCH WORK", IF(N13=D13, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M13" s="111"/>
+      <c r="M13" s="106"/>
       <c r="N13" s="44">
         <f>SUM(E13:K13)</f>
         <v>1</v>
@@ -13089,10 +13175,10 @@
       <c r="P13" s="44"/>
     </row>
     <row r="14" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="106"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="26">
         <v>0</v>
       </c>
@@ -13126,10 +13212,10 @@
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="93"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="32">
         <f>SUM(D6:D14)</f>
         <v>15.6</v>
@@ -13164,10 +13250,10 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="95"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="39">
         <v>15.6</v>
       </c>
@@ -14212,12 +14298,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A8F48E-9C64-4E70-BB5A-3E5673E0A3CB}">
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14237,120 +14323,122 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="59"/>
-      <c r="E3" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
+      <c r="E3" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="88">
+      <c r="E4" s="76">
         <v>45978</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="79">
         <v>45979</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="79">
         <v>45980</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="79">
         <v>45981</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="79">
         <v>45982</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="79">
         <v>45983</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="79">
         <v>45984</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="102"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="91" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="81" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="72" t="s">
         <v>87</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="84">
         <v>1.5</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="108" t="str">
+      <c r="E6" s="77"/>
+      <c r="F6" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="103" t="str">
         <f t="shared" ref="L6:L23" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M6" s="109"/>
+        <v>NOT ENOUGH WORK YET</v>
+      </c>
+      <c r="M6" s="104"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N23" si="1">SUM(E6:K6)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>47</v>
@@ -14358,60 +14446,64 @@
       <c r="P6" s="44"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="73" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="85">
         <v>1.5</v>
       </c>
-      <c r="E7" s="84"/>
+      <c r="E7" s="49">
+        <v>0.5</v>
+      </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="108" t="str">
+      <c r="L7" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M7" s="109"/>
+        <v>NOT ENOUGH WORK YET</v>
+      </c>
+      <c r="M7" s="104"/>
       <c r="N7" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E7:K7)</f>
+        <v>0.5</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P7" s="44"/>
     </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="86" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="73" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="85">
         <v>1.5</v>
       </c>
-      <c r="E8" s="78">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22"/>
+      <c r="E8" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="23"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="108" t="str">
+      <c r="L8" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M8" s="109"/>
+      <c r="M8" s="104"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -14422,30 +14514,34 @@
       <c r="P8" s="44"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="73" t="s">
         <v>90</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="85">
         <v>1.5</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.5</v>
+      </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="108" t="str">
+      <c r="L9" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M9" s="109"/>
+        <v>NOT ENOUGH WORK YET</v>
+      </c>
+      <c r="M9" s="104"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>99</v>
@@ -14453,27 +14549,27 @@
       <c r="P9" s="44"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="73" t="s">
         <v>91</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="85">
         <v>0.5</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="108" t="str">
+      <c r="L10" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M10" s="109"/>
+      <c r="M10" s="104"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14483,17 +14579,17 @@
       </c>
       <c r="P10" s="44"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="86" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="73" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="85">
         <v>0.5</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="70">
         <v>0.25</v>
       </c>
       <c r="F11" s="22"/>
@@ -14502,11 +14598,11 @@
       <c r="I11" s="23"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="108" t="str">
+      <c r="L11" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M11" s="109"/>
+      <c r="M11" s="104"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -14517,27 +14613,27 @@
       <c r="P11" s="44"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="73" t="s">
         <v>93</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="85">
         <v>0.5</v>
       </c>
-      <c r="E12" s="78"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="23"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="108" t="str">
+      <c r="L12" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M12" s="109"/>
+      <c r="M12" s="104"/>
       <c r="N12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14548,27 +14644,27 @@
       <c r="P12" s="44"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="73" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="85">
         <v>0.5</v>
       </c>
-      <c r="E13" s="78"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="108" t="str">
+      <c r="L13" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M13" s="109"/>
+      <c r="M13" s="104"/>
       <c r="N13" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14578,17 +14674,17 @@
       </c>
       <c r="P13" s="44"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="86">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="73">
         <v>35</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="85">
         <v>3</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="70">
         <v>0.75</v>
       </c>
       <c r="F14" s="22"/>
@@ -14597,11 +14693,11 @@
       <c r="I14" s="23"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="108" t="str">
+      <c r="L14" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M14" s="109"/>
+      <c r="M14" s="104"/>
       <c r="N14" s="44">
         <f t="shared" si="1"/>
         <v>0.75</v>
@@ -14612,27 +14708,27 @@
       <c r="P14" s="44"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="86">
+      <c r="B15" s="73">
         <v>36</v>
       </c>
       <c r="C15" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="85">
         <v>3</v>
       </c>
-      <c r="E15" s="78"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="108" t="str">
+      <c r="L15" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M15" s="109"/>
+      <c r="M15" s="104"/>
       <c r="N15" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14643,27 +14739,27 @@
       <c r="P15" s="44"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="73" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="85">
         <v>1.5</v>
       </c>
-      <c r="E16" s="78"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="108" t="str">
+      <c r="L16" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M16" s="109"/>
+      <c r="M16" s="104"/>
       <c r="N16" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14673,28 +14769,28 @@
       </c>
       <c r="P16" s="44"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="86" t="s">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="85">
         <v>1.5</v>
       </c>
-      <c r="E17" s="78"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="108" t="str">
+      <c r="L17" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M17" s="109"/>
+      <c r="M17" s="104"/>
       <c r="N17" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14705,27 +14801,27 @@
       <c r="P17" s="44"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="73" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="85">
         <v>1.5</v>
       </c>
-      <c r="E18" s="78"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="108" t="str">
+      <c r="L18" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M18" s="109"/>
+      <c r="M18" s="104"/>
       <c r="N18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14736,27 +14832,27 @@
       <c r="P18" s="44"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="73" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="85">
         <v>1.5</v>
       </c>
-      <c r="E19" s="78"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="108" t="str">
+      <c r="L19" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M19" s="109"/>
+      <c r="M19" s="104"/>
       <c r="N19" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14766,28 +14862,28 @@
       </c>
       <c r="P19" s="44"/>
     </row>
-    <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="86">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="73">
         <v>39</v>
       </c>
       <c r="C20" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="85">
         <v>3.5</v>
       </c>
-      <c r="E20" s="78"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
-      <c r="L20" s="108" t="str">
+      <c r="L20" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M20" s="109"/>
+      <c r="M20" s="104"/>
       <c r="N20" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14798,27 +14894,27 @@
       <c r="P20" s="44"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="86">
+      <c r="B21" s="73">
         <v>40</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="85">
         <v>3.5</v>
       </c>
-      <c r="E21" s="78"/>
+      <c r="E21" s="70"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
-      <c r="L21" s="108" t="str">
+      <c r="L21" s="103" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M21" s="109"/>
+      <c r="M21" s="104"/>
       <c r="N21" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14829,30 +14925,34 @@
       <c r="P21" s="44"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="86">
+      <c r="B22" s="73">
         <v>41</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="85">
+        <v>2</v>
+      </c>
+      <c r="E22" s="70">
         <v>1</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="108" t="str">
+      <c r="L22" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M22" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="M22" s="104"/>
       <c r="N22" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>44</v>
@@ -14860,30 +14960,34 @@
       <c r="P22" s="44"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="87">
+      <c r="B23" s="74">
         <v>42</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="82">
-        <v>1</v>
-      </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="108" t="str">
+      <c r="D23" s="86">
+        <v>2</v>
+      </c>
+      <c r="E23" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M23" s="109"/>
+        <v>NOT ENOUGH WORK YET</v>
+      </c>
+      <c r="M23" s="104"/>
       <c r="N23" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>39</v>
@@ -14891,129 +14995,129 @@
       <c r="P23" s="44"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="72">
+      <c r="C24" s="108"/>
+      <c r="D24" s="83">
         <v>0</v>
       </c>
-      <c r="E24" s="73">
-        <f t="shared" ref="E24:K24" ca="1" si="2">SUM(E6:E32)</f>
+      <c r="E24" s="69">
+        <f>SUM(E7:E23)</f>
+        <v>4</v>
+      </c>
+      <c r="F24" s="69">
+        <f t="shared" ref="F24:K24" si="2">SUM(F7:F23)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G24" s="69">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F24" s="74">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H24" s="69">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="74">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I24" s="69">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H24" s="74">
-        <f t="shared" ca="1" si="2"/>
+      <c r="J24" s="69">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I24" s="75">
-        <f t="shared" ca="1" si="2"/>
+      <c r="K24" s="69">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="76">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="77">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="108"/>
-      <c r="M24" s="109"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="104"/>
       <c r="N24" s="44"/>
       <c r="O24" s="44"/>
       <c r="P24" s="44"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="113"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="64">
         <f>SUM(D6:D24)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" s="65">
-        <f t="shared" ref="E25:K25" ca="1" si="3">D25-SUM(E6:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="67">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="68">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="108"/>
-      <c r="M25" s="109"/>
+        <f>D25-SUM(E7:E23)</f>
+        <v>27</v>
+      </c>
+      <c r="F25" s="65">
+        <f t="shared" ref="F25:K25" si="3">E25-SUM(F7:F23)</f>
+        <v>24.5</v>
+      </c>
+      <c r="G25" s="65">
+        <f t="shared" si="3"/>
+        <v>24.5</v>
+      </c>
+      <c r="H25" s="65">
+        <f t="shared" si="3"/>
+        <v>24.5</v>
+      </c>
+      <c r="I25" s="65">
+        <f t="shared" si="3"/>
+        <v>24.5</v>
+      </c>
+      <c r="J25" s="65">
+        <f t="shared" si="3"/>
+        <v>24.5</v>
+      </c>
+      <c r="K25" s="65">
+        <f t="shared" si="3"/>
+        <v>24.5</v>
+      </c>
+      <c r="L25" s="103"/>
+      <c r="M25" s="104"/>
       <c r="N25" s="44"/>
       <c r="O25" s="44"/>
       <c r="P25" s="44"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="116"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="61">
         <f>SUM(D6:D23)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26" s="62">
         <f>$D$26-($D$26/7*1)</f>
-        <v>24.857142857142858</v>
+        <v>26.571428571428569</v>
       </c>
       <c r="F26" s="62">
         <f>$D$26-($D$26/7*2)</f>
-        <v>20.714285714285715</v>
+        <v>22.142857142857142</v>
       </c>
       <c r="G26" s="62">
         <f>$D$26-($D$26/7*3)</f>
-        <v>16.571428571428569</v>
+        <v>17.714285714285715</v>
       </c>
       <c r="H26" s="62">
         <f>$D$26-($D$26/7*4)</f>
-        <v>12.428571428571427</v>
+        <v>13.285714285714285</v>
       </c>
       <c r="I26" s="62">
         <f>$D$26-($D$26/7*5)</f>
-        <v>8.2857142857142847</v>
+        <v>8.8571428571428541</v>
       </c>
       <c r="J26" s="62">
         <f>$D$26-($D$26/7*6)</f>
-        <v>4.1428571428571388</v>
+        <v>4.428571428571427</v>
       </c>
       <c r="K26" s="63">
         <f>$D$26-($D$26/7*7)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="108"/>
-      <c r="M26" s="109"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="104"/>
       <c r="N26" s="44"/>
       <c r="O26" s="44"/>
       <c r="P26" s="44"/>
@@ -15029,8 +15133,8 @@
       <c r="I27" s="59"/>
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="109"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="104"/>
       <c r="N27" s="44"/>
       <c r="O27" s="44"/>
       <c r="P27" s="44"/>
@@ -15046,8 +15150,8 @@
       <c r="I28" s="59"/>
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="109"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="104"/>
       <c r="N28" s="44"/>
       <c r="O28" s="44"/>
       <c r="P28" s="44"/>
@@ -15063,8 +15167,8 @@
       <c r="I29" s="59"/>
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="109"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="104"/>
       <c r="N29" s="44"/>
       <c r="O29" s="44"/>
       <c r="P29" s="44"/>
@@ -15080,8 +15184,8 @@
       <c r="I30" s="59"/>
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="109"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="104"/>
       <c r="N30" s="44"/>
       <c r="O30" s="44"/>
       <c r="P30" s="44"/>
@@ -15097,8 +15201,8 @@
       <c r="I31" s="59"/>
       <c r="J31" s="59"/>
       <c r="K31" s="59"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="109"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="104"/>
       <c r="N31" s="44"/>
       <c r="O31" s="44"/>
       <c r="P31" s="44"/>
@@ -15114,8 +15218,8 @@
       <c r="I32" s="59"/>
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="109"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="104"/>
       <c r="N32" s="44"/>
       <c r="O32" s="44"/>
       <c r="P32" s="44"/>
@@ -15131,8 +15235,8 @@
       <c r="I33" s="59"/>
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="109"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="104"/>
       <c r="N33" s="44"/>
       <c r="O33" s="44"/>
       <c r="P33" s="44"/>
@@ -15148,8 +15252,8 @@
       <c r="I34" s="59"/>
       <c r="J34" s="59"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="109"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="104"/>
       <c r="N34" s="44"/>
       <c r="O34" s="44"/>
       <c r="P34" s="44"/>
@@ -15165,8 +15269,8 @@
       <c r="I35" s="59"/>
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="109"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="104"/>
       <c r="N35" s="44"/>
       <c r="O35" s="44"/>
       <c r="P35" s="44"/>
@@ -15182,8 +15286,8 @@
       <c r="I36" s="59"/>
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="109"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="104"/>
       <c r="N36" s="44"/>
       <c r="O36" s="44"/>
       <c r="P36" s="44"/>
@@ -15199,8 +15303,8 @@
       <c r="I37" s="59"/>
       <c r="J37" s="59"/>
       <c r="K37" s="59"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="109"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="104"/>
       <c r="N37" s="44"/>
       <c r="O37" s="44"/>
       <c r="P37" s="44"/>
@@ -15263,7 +15367,7 @@
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N37">
+  <conditionalFormatting sqref="N6:N37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
+++ b/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\fct-unl\INFORMATICA\5th_sem\courses\ES\project\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint6\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9728EFC1-9D82-4B17-AC12-D52AE3FF3241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F602F464-A51C-4EFA-90AA-B8A25521C6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1745,6 +1745,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1756,10 +1760,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4659,16 +4659,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.25</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4781,28 +4781,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.75</c:v>
+                  <c:v>21.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.25</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.25</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.25</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.25</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.25</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4868,25 +4868,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.857142857142858</c:v>
+                  <c:v>23.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.714285714285715</c:v>
+                  <c:v>19.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.571428571428569</c:v>
+                  <c:v>15.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.428571428571427</c:v>
+                  <c:v>11.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2857142857142847</c:v>
+                  <c:v>7.7142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1428571428571388</c:v>
+                  <c:v>3.8571428571428577</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -10761,6 +10761,36 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="L30:M30"/>
@@ -10770,36 +10800,6 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
@@ -12722,14 +12722,16 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L25:M25"/>
@@ -12739,16 +12741,14 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L25">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -12788,7 +12788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF431CF1-8E16-45D5-A381-7331DD95E65F}">
   <dimension ref="B1:P976"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C19" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -14248,6 +14248,11 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -14258,11 +14263,6 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L13">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
@@ -14302,8 +14302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A8F48E-9C64-4E70-BB5A-3E5673E0A3CB}">
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14356,7 +14356,7 @@
       <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="107" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="75" t="s">
@@ -14386,7 +14386,7 @@
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="97"/>
-      <c r="C5" s="113"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="82" t="s">
         <v>5</v>
       </c>
@@ -14429,7 +14429,9 @@
       <c r="G6" s="51">
         <v>0.5</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="51">
+        <v>0.25</v>
+      </c>
       <c r="I6" s="80"/>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
@@ -14440,7 +14442,7 @@
       <c r="M6" s="104"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N23" si="1">SUM(E6:K6)</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>47</v>
@@ -14464,7 +14466,9 @@
       <c r="G7" s="22">
         <v>0.5</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="22">
+        <v>0.25</v>
+      </c>
       <c r="I7" s="23"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -14475,7 +14479,7 @@
       <c r="M7" s="104"/>
       <c r="N7" s="44">
         <f>SUM(E7:K7)</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>41</v>
@@ -14568,19 +14572,23 @@
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="G10" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0.25</v>
+      </c>
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
+        <v>DONE</v>
       </c>
       <c r="M10" s="104"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>47</v>
@@ -14602,18 +14610,20 @@
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="22">
+        <v>0.25</v>
+      </c>
       <c r="I11" s="23"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M11" s="104"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>41</v>
@@ -14633,18 +14643,20 @@
       <c r="E12" s="70"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="22">
+        <v>0.25</v>
+      </c>
       <c r="I12" s="23"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
+        <v>NOT ENOUGH WORK YET</v>
       </c>
       <c r="M12" s="104"/>
       <c r="N12" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>37</v>
@@ -14664,18 +14676,20 @@
       <c r="E13" s="70"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="H13" s="22">
+        <v>0.25</v>
+      </c>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
+        <v>NOT ENOUGH WORK YET</v>
       </c>
       <c r="M13" s="104"/>
       <c r="N13" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>99</v>
@@ -14690,13 +14704,13 @@
         <v>104</v>
       </c>
       <c r="D14" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="70">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="22">
         <v>0.75</v>
-      </c>
-      <c r="F14" s="22">
-        <v>1.25</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -14710,7 +14724,7 @@
       <c r="M14" s="104"/>
       <c r="N14" s="44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>44</v>
@@ -14725,15 +14739,15 @@
         <v>105</v>
       </c>
       <c r="D15" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="70"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="22"/>
@@ -14745,7 +14759,7 @@
       <c r="M15" s="104"/>
       <c r="N15" s="44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>39</v>
@@ -15011,28 +15025,28 @@
       <c r="P23" s="44"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="108"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="83">
         <v>0</v>
       </c>
       <c r="E24" s="69">
         <f>SUM(E7:E23)</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F24" s="69">
         <f t="shared" ref="F24:K24" si="2">SUM(F7:F23)</f>
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="G24" s="69">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="H24" s="69">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="I24" s="69">
         <f t="shared" si="2"/>
@@ -15053,41 +15067,41 @@
       <c r="P24" s="44"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="108"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="64">
         <f>SUM(D6:D24)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" s="65">
         <f>D25-SUM(E7:E23)</f>
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="F25" s="65">
         <f t="shared" ref="F25:K25" si="3">E25-SUM(F7:F23)</f>
-        <v>22.75</v>
+        <v>21.75</v>
       </c>
       <c r="G25" s="65">
         <f t="shared" si="3"/>
-        <v>18.25</v>
+        <v>17.5</v>
       </c>
       <c r="H25" s="65">
         <f t="shared" si="3"/>
-        <v>17.25</v>
+        <v>15.75</v>
       </c>
       <c r="I25" s="65">
         <f t="shared" si="3"/>
-        <v>17.25</v>
+        <v>15.75</v>
       </c>
       <c r="J25" s="65">
         <f t="shared" si="3"/>
-        <v>17.25</v>
+        <v>15.75</v>
       </c>
       <c r="K25" s="65">
         <f t="shared" si="3"/>
-        <v>17.25</v>
+        <v>15.75</v>
       </c>
       <c r="L25" s="103"/>
       <c r="M25" s="104"/>
@@ -15096,37 +15110,37 @@
       <c r="P25" s="44"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="111"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="61">
         <f>SUM(D6:D23)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E26" s="62">
         <f>$D$26-($D$26/7*1)</f>
-        <v>24.857142857142858</v>
+        <v>23.142857142857142</v>
       </c>
       <c r="F26" s="62">
         <f>$D$26-($D$26/7*2)</f>
-        <v>20.714285714285715</v>
+        <v>19.285714285714285</v>
       </c>
       <c r="G26" s="62">
         <f>$D$26-($D$26/7*3)</f>
-        <v>16.571428571428569</v>
+        <v>15.428571428571429</v>
       </c>
       <c r="H26" s="62">
         <f>$D$26-($D$26/7*4)</f>
-        <v>12.428571428571427</v>
+        <v>11.571428571428571</v>
       </c>
       <c r="I26" s="62">
         <f>$D$26-($D$26/7*5)</f>
-        <v>8.2857142857142847</v>
+        <v>7.7142857142857153</v>
       </c>
       <c r="J26" s="62">
         <f>$D$26-($D$26/7*6)</f>
-        <v>4.1428571428571388</v>
+        <v>3.8571428571428577</v>
       </c>
       <c r="K26" s="63">
         <f>$D$26-($D$26/7*7)</f>
@@ -15327,12 +15341,27 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
@@ -15345,27 +15374,12 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
+++ b/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\fct-unl\INFORMATICA\5th_sem\courses\ES\project\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint6\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F602F464-A51C-4EFA-90AA-B8A25521C6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F018B490-BCEF-450A-ADD2-E2698449D809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart Sprint1" sheetId="1" r:id="rId1"/>
@@ -1745,10 +1745,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1760,6 +1756,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4659,19 +4659,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.75</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4781,28 +4781,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.75</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.75</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.75</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.75</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.75</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4868,25 +4868,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.142857142857142</c:v>
+                  <c:v>22.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.285714285714285</c:v>
+                  <c:v>18.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.428571428571429</c:v>
+                  <c:v>14.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.571428571428571</c:v>
+                  <c:v>11.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7142857142857153</c:v>
+                  <c:v>7.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8571428571428577</c:v>
+                  <c:v>3.7142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -10761,36 +10761,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="L30:M30"/>
@@ -10800,6 +10770,36 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
@@ -12722,16 +12722,14 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L25:M25"/>
@@ -12741,14 +12739,16 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L25">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -14248,11 +14248,6 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -14263,6 +14258,11 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L13">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
@@ -14302,8 +14302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A8F48E-9C64-4E70-BB5A-3E5673E0A3CB}">
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:M28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14356,7 +14356,7 @@
       <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="112" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="75" t="s">
@@ -14386,7 +14386,7 @@
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="97"/>
-      <c r="C5" s="108"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="82" t="s">
         <v>5</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="84">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="49">
@@ -14430,9 +14430,11 @@
         <v>0.5</v>
       </c>
       <c r="H6" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="80">
         <v>0.25</v>
       </c>
-      <c r="I6" s="80"/>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
       <c r="L6" s="103" t="str">
@@ -14442,7 +14444,7 @@
       <c r="M6" s="104"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N23" si="1">SUM(E6:K6)</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>47</v>
@@ -14457,7 +14459,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="85">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="49">
         <v>0.5</v>
@@ -14467,7 +14469,7 @@
         <v>0.5</v>
       </c>
       <c r="H7" s="22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="22"/>
@@ -14479,7 +14481,7 @@
       <c r="M7" s="104"/>
       <c r="N7" s="44">
         <f>SUM(E7:K7)</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>41</v>
@@ -14494,29 +14496,31 @@
         <v>101</v>
       </c>
       <c r="D8" s="85">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="70">
         <v>0.5</v>
       </c>
       <c r="F8" s="22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="22">
         <v>0.5</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="22">
+        <v>0.5</v>
+      </c>
       <c r="I8" s="23"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M8" s="104"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>37</v>
@@ -14531,29 +14535,31 @@
         <v>101</v>
       </c>
       <c r="D9" s="85">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="70">
         <v>0.5</v>
       </c>
       <c r="F9" s="22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="22">
         <v>0.5</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="22">
+        <v>0.5</v>
+      </c>
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M9" s="104"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>99</v>
@@ -14729,7 +14735,7 @@
       <c r="O14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="44"/>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="73">
@@ -14774,7 +14780,7 @@
         <v>106</v>
       </c>
       <c r="D16" s="85">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="22"/>
@@ -14805,23 +14811,25 @@
         <v>106</v>
       </c>
       <c r="D17" s="85">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="70"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="I17" s="23">
+        <v>0.75</v>
+      </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
+        <v>NOT ENOUGH WORK YET</v>
       </c>
       <c r="M17" s="104"/>
       <c r="N17" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>41</v>
@@ -14836,7 +14844,7 @@
         <v>107</v>
       </c>
       <c r="D18" s="85">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="70"/>
       <c r="F18" s="22"/>
@@ -14867,7 +14875,7 @@
         <v>107</v>
       </c>
       <c r="D19" s="85">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="70"/>
       <c r="F19" s="22"/>
@@ -14898,23 +14906,25 @@
         <v>108</v>
       </c>
       <c r="D20" s="85">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="70"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
+      <c r="I20" s="23">
+        <v>1</v>
+      </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
+        <v>NOT ENOUGH WORK YET</v>
       </c>
       <c r="M20" s="104"/>
       <c r="N20" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>44</v>
@@ -14929,7 +14939,7 @@
         <v>109</v>
       </c>
       <c r="D21" s="85">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="70"/>
       <c r="F21" s="22"/>
@@ -14963,9 +14973,11 @@
         <v>2</v>
       </c>
       <c r="E22" s="70">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="22">
+        <v>0.5</v>
+      </c>
       <c r="G22" s="22">
         <v>1</v>
       </c>
@@ -15025,20 +15037,20 @@
       <c r="P23" s="44"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="110"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="83">
         <v>0</v>
       </c>
       <c r="E24" s="69">
         <f>SUM(E7:E23)</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="69">
         <f t="shared" ref="F24:K24" si="2">SUM(F7:F23)</f>
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="G24" s="69">
         <f t="shared" si="2"/>
@@ -15046,11 +15058,11 @@
       </c>
       <c r="H24" s="69">
         <f t="shared" si="2"/>
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="I24" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="J24" s="69">
         <f t="shared" si="2"/>
@@ -15067,41 +15079,41 @@
       <c r="P24" s="44"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="110"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="64">
         <f>SUM(D6:D24)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="65">
         <f>D25-SUM(E7:E23)</f>
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="F25" s="65">
         <f t="shared" ref="F25:K25" si="3">E25-SUM(F7:F23)</f>
-        <v>21.75</v>
+        <v>20.25</v>
       </c>
       <c r="G25" s="65">
         <f t="shared" si="3"/>
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H25" s="65">
         <f t="shared" si="3"/>
-        <v>15.75</v>
+        <v>13</v>
       </c>
       <c r="I25" s="65">
         <f t="shared" si="3"/>
-        <v>15.75</v>
+        <v>11.25</v>
       </c>
       <c r="J25" s="65">
         <f t="shared" si="3"/>
-        <v>15.75</v>
+        <v>11.25</v>
       </c>
       <c r="K25" s="65">
         <f t="shared" si="3"/>
-        <v>15.75</v>
+        <v>11.25</v>
       </c>
       <c r="L25" s="103"/>
       <c r="M25" s="104"/>
@@ -15110,37 +15122,37 @@
       <c r="P25" s="44"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="113"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="61">
         <f>SUM(D6:D23)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="62">
         <f>$D$26-($D$26/7*1)</f>
-        <v>23.142857142857142</v>
+        <v>22.285714285714285</v>
       </c>
       <c r="F26" s="62">
         <f>$D$26-($D$26/7*2)</f>
-        <v>19.285714285714285</v>
+        <v>18.571428571428569</v>
       </c>
       <c r="G26" s="62">
         <f>$D$26-($D$26/7*3)</f>
-        <v>15.428571428571429</v>
+        <v>14.857142857142858</v>
       </c>
       <c r="H26" s="62">
         <f>$D$26-($D$26/7*4)</f>
-        <v>11.571428571428571</v>
+        <v>11.142857142857142</v>
       </c>
       <c r="I26" s="62">
         <f>$D$26-($D$26/7*5)</f>
-        <v>7.7142857142857153</v>
+        <v>7.428571428571427</v>
       </c>
       <c r="J26" s="62">
         <f>$D$26-($D$26/7*6)</f>
-        <v>3.8571428571428577</v>
+        <v>3.7142857142857153</v>
       </c>
       <c r="K26" s="63">
         <f>$D$26-($D$26/7*7)</f>
@@ -15341,27 +15353,12 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
@@ -15374,12 +15371,27 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L25:M25"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
+++ b/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\fct-unl\INFORMATICA\5th_sem\courses\ES\project\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint6\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F018B490-BCEF-450A-ADD2-E2698449D809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E16B98-591F-4419-A95A-EF482C982B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1745,6 +1745,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1756,10 +1760,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4674,10 +4674,10 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4799,10 +4799,10 @@
                   <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.25</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.25</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10761,6 +10761,36 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="L30:M30"/>
@@ -10770,36 +10800,6 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
@@ -12722,14 +12722,16 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L25:M25"/>
@@ -12739,16 +12741,14 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L25">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -14248,6 +14248,11 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -14258,11 +14263,6 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L13">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
@@ -14303,7 +14303,7 @@
   <dimension ref="B2:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14356,7 +14356,7 @@
       <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="107" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="75" t="s">
@@ -14386,7 +14386,7 @@
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="97"/>
-      <c r="C5" s="113"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="82" t="s">
         <v>5</v>
       </c>
@@ -14435,16 +14435,18 @@
       <c r="I6" s="80">
         <v>0.25</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="51">
+        <v>0.25</v>
+      </c>
       <c r="K6" s="51"/>
       <c r="L6" s="103" t="str">
         <f t="shared" ref="L6:L23" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M6" s="104"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N23" si="1">SUM(E6:K6)</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>47</v>
@@ -14472,16 +14474,18 @@
         <v>0.5</v>
       </c>
       <c r="I7" s="23"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="22">
+        <v>0.5</v>
+      </c>
       <c r="K7" s="22"/>
       <c r="L7" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M7" s="104"/>
       <c r="N7" s="44">
         <f>SUM(E7:K7)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>41</v>
@@ -14654,15 +14658,17 @@
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="K12" s="22">
+        <v>0.25</v>
+      </c>
       <c r="L12" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M12" s="104"/>
       <c r="N12" s="44">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>37</v>
@@ -14687,15 +14693,17 @@
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="22">
+        <v>0.25</v>
+      </c>
       <c r="L13" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M13" s="104"/>
       <c r="N13" s="44">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>99</v>
@@ -14787,16 +14795,20 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="J16" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0.5</v>
+      </c>
       <c r="L16" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
+        <v>DONE</v>
       </c>
       <c r="M16" s="104"/>
       <c r="N16" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>47</v>
@@ -14821,15 +14833,17 @@
         <v>0.75</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="K17" s="22">
+        <v>0.25</v>
+      </c>
       <c r="L17" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M17" s="104"/>
       <c r="N17" s="44">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>41</v>
@@ -14852,15 +14866,17 @@
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="K18" s="22">
+        <v>0.5</v>
+      </c>
       <c r="L18" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
+        <v>NOT ENOUGH WORK YET</v>
       </c>
       <c r="M18" s="104"/>
       <c r="N18" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>37</v>
@@ -14883,15 +14899,17 @@
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="K19" s="22">
+        <v>0.5</v>
+      </c>
       <c r="L19" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
+        <v>NOT ENOUGH WORK YET</v>
       </c>
       <c r="M19" s="104"/>
       <c r="N19" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>99</v>
@@ -14946,16 +14964,20 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
+      <c r="J21" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="K21" s="22">
+        <v>0.5</v>
+      </c>
       <c r="L21" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
+        <v>DONE</v>
       </c>
       <c r="M21" s="104"/>
       <c r="N21" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>39</v>
@@ -15037,10 +15059,10 @@
       <c r="P23" s="44"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="108"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="83">
         <v>0</v>
       </c>
@@ -15066,11 +15088,11 @@
       </c>
       <c r="J24" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K24" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="L24" s="103"/>
       <c r="M24" s="104"/>
@@ -15079,10 +15101,10 @@
       <c r="P24" s="44"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="108"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="64">
         <f>SUM(D6:D24)</f>
         <v>26</v>
@@ -15109,11 +15131,11 @@
       </c>
       <c r="J25" s="65">
         <f t="shared" si="3"/>
-        <v>11.25</v>
+        <v>7.75</v>
       </c>
       <c r="K25" s="65">
         <f t="shared" si="3"/>
-        <v>11.25</v>
+        <v>5</v>
       </c>
       <c r="L25" s="103"/>
       <c r="M25" s="104"/>
@@ -15122,10 +15144,10 @@
       <c r="P25" s="44"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="111"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="61">
         <f>SUM(D6:D23)</f>
         <v>26</v>
@@ -15353,12 +15375,27 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
@@ -15371,27 +15408,12 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
+++ b/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\fct-unl\INFORMATICA\5th_sem\courses\ES\project\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint6\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E16B98-591F-4419-A95A-EF482C982B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3E252A-E858-40D5-AE2F-3CA8CA9A718A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3635,13 +3635,13 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.05</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3760,13 +3760,13 @@
                   <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>8.3500000000000014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5500000000000016</c:v>
+                  <c:v>7.1500000000000012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3500000000000014</c:v>
+                  <c:v>5.4000000000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3832,25 +3832,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15.6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.37142857142857</c:v>
+                  <c:v>8.5714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.142857142857142</c:v>
+                  <c:v>7.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9142857142857146</c:v>
+                  <c:v>5.7142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6857142857142851</c:v>
+                  <c:v>4.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4571428571428573</c:v>
+                  <c:v>2.8571428571428568</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2285714285714278</c:v>
+                  <c:v>1.4285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4662,22 +4662,22 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.75</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.25</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.75</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.75</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4787,22 +4787,22 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.25</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.25</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.75</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10839,8 +10839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P988"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11657,32 +11657,32 @@
         <v>0</v>
       </c>
       <c r="E26" s="27">
-        <f t="shared" ref="E26:K26" si="2">SUM(E6:E20)</f>
+        <f>SUM(E6:E25)</f>
         <v>0.25</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="2"/>
+        <f>SUM(F6:F25)</f>
         <v>0.5</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" si="2"/>
+        <f>SUM(G6:G25)</f>
         <v>0</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="2"/>
+        <f>SUM(H6:H25)</f>
         <v>0.45</v>
       </c>
       <c r="I26" s="29">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
+        <f>SUM(I6:I25)</f>
+        <v>0.45</v>
       </c>
       <c r="J26" s="30">
-        <f t="shared" si="2"/>
-        <v>1.05</v>
+        <f>SUM(J6:J25)</f>
+        <v>1.2</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
+        <f>SUM(K6:K25)</f>
+        <v>1.75</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11695,32 +11695,32 @@
         <v>10</v>
       </c>
       <c r="E27" s="33">
-        <f t="shared" ref="E27:K27" si="3">D27-SUM(E6:E20)</f>
+        <f>D27-SUM(E6:E25)</f>
         <v>9.75</v>
       </c>
       <c r="F27" s="34">
-        <f t="shared" si="3"/>
+        <f>E27-SUM(F6:F25)</f>
         <v>9.25</v>
       </c>
       <c r="G27" s="34">
-        <f t="shared" si="3"/>
+        <f>F27-SUM(G6:G25)</f>
         <v>9.25</v>
       </c>
       <c r="H27" s="34">
-        <f t="shared" si="3"/>
+        <f>G27-SUM(H6:H25)</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="I27" s="35">
-        <f t="shared" si="3"/>
-        <v>8.6000000000000014</v>
+        <f>H27-SUM(I6:I25)</f>
+        <v>8.3500000000000014</v>
       </c>
       <c r="J27" s="36">
-        <f t="shared" si="3"/>
-        <v>7.5500000000000016</v>
+        <f>I27-SUM(J6:J25)</f>
+        <v>7.1500000000000012</v>
       </c>
       <c r="K27" s="36">
-        <f t="shared" si="3"/>
-        <v>6.3500000000000014</v>
+        <f>J27-SUM(K6:K25)</f>
+        <v>5.4000000000000012</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11729,31 +11729,32 @@
       </c>
       <c r="C28" s="90"/>
       <c r="D28" s="39">
-        <v>15.6</v>
+        <f>D27</f>
+        <v>10</v>
       </c>
       <c r="E28" s="40">
         <f>$D$28-($D$28/7*1)</f>
-        <v>13.37142857142857</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="F28" s="40">
         <f>$D$28-($D$28/7*2)</f>
-        <v>11.142857142857142</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="G28" s="40">
         <f>$D$28-($D$28/7*3)</f>
-        <v>8.9142857142857146</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="H28" s="40">
         <f>$D$28-($D$28/7*4)</f>
-        <v>6.6857142857142851</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="I28" s="41">
         <f>$D$28-($D$28/7*5)</f>
-        <v>4.4571428571428573</v>
+        <v>2.8571428571428568</v>
       </c>
       <c r="J28" s="41">
         <f>$D$28-($D$28/7*6)</f>
-        <v>2.2285714285714278</v>
+        <v>1.4285714285714288</v>
       </c>
       <c r="K28" s="40">
         <f>$D$28-($D$28/7*7)</f>
@@ -12788,8 +12789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF431CF1-8E16-45D5-A381-7331DD95E65F}">
   <dimension ref="B1:P976"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14302,8 +14303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A8F48E-9C64-4E70-BB5A-3E5673E0A3CB}">
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14867,16 +14868,16 @@
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L18" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M18" s="104"/>
       <c r="N18" s="44">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>37</v>
@@ -14900,16 +14901,16 @@
       <c r="I19" s="23"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L19" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M19" s="104"/>
       <c r="N19" s="44">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>99</v>
@@ -14933,16 +14934,20 @@
       <c r="I20" s="23">
         <v>1</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="22">
+        <v>1</v>
+      </c>
+      <c r="K20" s="22">
+        <v>1</v>
+      </c>
       <c r="L20" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="M20" s="104"/>
       <c r="N20" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>44</v>
@@ -15067,32 +15072,32 @@
         <v>0</v>
       </c>
       <c r="E24" s="69">
-        <f>SUM(E7:E23)</f>
+        <f>SUM(E6:E23)</f>
         <v>3</v>
       </c>
       <c r="F24" s="69">
-        <f t="shared" ref="F24:K24" si="2">SUM(F7:F23)</f>
-        <v>2.75</v>
+        <f>SUM(F6:F23)</f>
+        <v>3.25</v>
       </c>
       <c r="G24" s="69">
-        <f t="shared" si="2"/>
-        <v>4.25</v>
+        <f>SUM(G6:G23)</f>
+        <v>4.75</v>
       </c>
       <c r="H24" s="69">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>SUM(H6:H23)</f>
+        <v>3.5</v>
       </c>
       <c r="I24" s="69">
-        <f t="shared" si="2"/>
-        <v>1.75</v>
+        <f>SUM(I6:I23)</f>
+        <v>2</v>
       </c>
       <c r="J24" s="69">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
+        <f>SUM(J6:J23)</f>
+        <v>4.75</v>
       </c>
       <c r="K24" s="69">
-        <f t="shared" si="2"/>
-        <v>2.75</v>
+        <f>SUM(K6:K23)</f>
+        <v>4.75</v>
       </c>
       <c r="L24" s="103"/>
       <c r="M24" s="104"/>
@@ -15110,32 +15115,32 @@
         <v>26</v>
       </c>
       <c r="E25" s="65">
-        <f>D25-SUM(E7:E23)</f>
+        <f>D25-SUM(E6:E23)</f>
         <v>23</v>
       </c>
       <c r="F25" s="65">
-        <f t="shared" ref="F25:K25" si="3">E25-SUM(F7:F23)</f>
-        <v>20.25</v>
+        <f>E25-SUM(F6:F23)</f>
+        <v>19.75</v>
       </c>
       <c r="G25" s="65">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f>F25-SUM(G6:G23)</f>
+        <v>15</v>
       </c>
       <c r="H25" s="65">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f>G25-SUM(H6:H23)</f>
+        <v>11.5</v>
       </c>
       <c r="I25" s="65">
-        <f t="shared" si="3"/>
-        <v>11.25</v>
+        <f>H25-SUM(I6:I23)</f>
+        <v>9.5</v>
       </c>
       <c r="J25" s="65">
-        <f t="shared" si="3"/>
-        <v>7.75</v>
+        <f>I25-SUM(J6:J23)</f>
+        <v>4.75</v>
       </c>
       <c r="K25" s="65">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>J25-SUM(K6:K23)</f>
+        <v>0</v>
       </c>
       <c r="L25" s="103"/>
       <c r="M25" s="104"/>

--- a/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
+++ b/SE202526/Management/Sprint6/burndown/Sprint6_Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\fct-unl\INFORMATICA\5th_sem\courses\ES\project\SE2526_67775_67804_67286_68130_68547_67763\SE202526\Management\Sprint6\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3E252A-E858-40D5-AE2F-3CA8CA9A718A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194358CC-DC2D-421B-BEDA-4C230A2938A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart Sprint1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <sheet name="Burndown Chart Sprint5" sheetId="5" r:id="rId5"/>
     <sheet name="Burndown Chart Sprint6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="154">
   <si>
     <t>Sprint 1 Burndown Chart</t>
   </si>
@@ -333,29 +336,6 @@
     <t>$$</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Burndown </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ideal</t>
-    </r>
-  </si>
-  <si>
     <t>T23: Review and look into what a Use case diagram covering undo/redo added feature would look like.</t>
   </si>
   <si>
@@ -478,6 +458,130 @@
   <si>
     <t>Sprint 2</t>
   </si>
+  <si>
+    <t>2-nov.-25</t>
+  </si>
+  <si>
+    <t>3-nov.-25</t>
+  </si>
+  <si>
+    <t>4-nov.-25</t>
+  </si>
+  <si>
+    <t>5-nov.-25</t>
+  </si>
+  <si>
+    <t>6-nov.-25</t>
+  </si>
+  <si>
+    <t>7-nov.-25</t>
+  </si>
+  <si>
+    <t>8-nov.-25</t>
+  </si>
+  <si>
+    <t>T14.1: Revisit the read code, and find code smells.</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>T16.4: Revisit the read code, and find design patterns.</t>
+  </si>
+  <si>
+    <t>T16.5: Revisit the read code, and find design patterns.</t>
+  </si>
+  <si>
+    <t>T16.6: Revisit the read code, and find design patterns.</t>
+  </si>
+  <si>
+    <t>T19.1: Revisit the read code, and study the associated metrics.</t>
+  </si>
+  <si>
+    <t>T19.2: Revisit the read code, and study the associated metrics.</t>
+  </si>
+  <si>
+    <t>T19.3: Revisit the read code, and study the associated metrics.</t>
+  </si>
+  <si>
+    <t>T19.4: Revisit the read code, and study the associated metrics.</t>
+  </si>
+  <si>
+    <t>T19.5: Revisit the read code, and study the associated metrics.</t>
+  </si>
+  <si>
+    <t>T19.6: Revisit the read code, and study the associated metrics.</t>
+  </si>
+  <si>
+    <t>T20.1: Document said metrics.</t>
+  </si>
+  <si>
+    <t>T20.2: Document said metrics.</t>
+  </si>
+  <si>
+    <t>T20.3: Document said metrics.</t>
+  </si>
+  <si>
+    <t>T20.4: Document said metrics.</t>
+  </si>
+  <si>
+    <t>T20.5: Document said metrics.</t>
+  </si>
+  <si>
+    <t>T20.6: Document said metrics.</t>
+  </si>
+  <si>
+    <t>T21.1: Revisit the read code, and choose a part of the system to work on.</t>
+  </si>
+  <si>
+    <t>T21.2: Revisit the read code, and choose a part of the system to work on.</t>
+  </si>
+  <si>
+    <t>T21.3: Revisit the read code, and choose a part of the system to work on.</t>
+  </si>
+  <si>
+    <t>T21.4: Revisit the read code, and choose a part of the system to work on.</t>
+  </si>
+  <si>
+    <t>T21.5: Revisit the read code, and choose a part of the system to work on.</t>
+  </si>
+  <si>
+    <t>T21.6: Revisit the read code, and choose a part of the system to work on.</t>
+  </si>
+  <si>
+    <t>T22.1: Develop the Use Case Diagram of the chosen system part.</t>
+  </si>
+  <si>
+    <t>T22.2: Develop the Use Case Diagram of the chosen system part.</t>
+  </si>
+  <si>
+    <t>T22.3: Develop the Use Case Diagram of the chosen system part.</t>
+  </si>
+  <si>
+    <t>T22.4: Develop the Use Case Diagram of the chosen system part.</t>
+  </si>
+  <si>
+    <t>T22.5: Develop the Use Case Diagram of the chosen system part.</t>
+  </si>
+  <si>
+    <t>T22.6: Develop the Use Case Diagram of the chosen system part.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Burndown </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ideal</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -486,11 +590,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,8 +655,32 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -554,12 +689,21 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,8 +764,110 @@
         <bgColor rgb="FFC5E0B3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548135"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CAAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EE839"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3DA5B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72EC2E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAE344"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF39F517"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7DF50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF2CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="95">
     <border>
       <left/>
       <right/>
@@ -1461,305 +1707,858 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3530,7 +4329,14 @@
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3547,7 +4353,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3583,7 +4389,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart Sprint4'!$D$5:$K$5</c:f>
+              <c:f>'[1]Burndown Chart Sprint4'!$D$5:$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3615,7 +4421,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint4'!$D$26:$K$26</c:f>
+              <c:f>'[1]Burndown Chart Sprint4'!$D$51:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3623,25 +4429,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>3.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,7 +4468,7 @@
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-29CC-4026-81F2-D59681DBAECC}"/>
+              <c16:uniqueId val="{00000000-F647-4B8D-A7FD-ABF0D61938D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3676,8 +4482,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="205809955"/>
-        <c:axId val="953123066"/>
+        <c:axId val="1464094762"/>
+        <c:axId val="1165773373"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3708,7 +4514,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart Sprint4'!$D$5:$K$5</c:f>
+              <c:f>'[1]Burndown Chart Sprint4'!$D$5:$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3740,33 +4546,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint4'!$D$27:$K$27</c:f>
+              <c:f>'[1]Burndown Chart Sprint4'!$D$52:$K$52</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>10</c:v>
+                <c:pt idx="0">
+                  <c:v>17.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.75</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.25</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.25</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3500000000000014</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1500000000000012</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4000000000000012</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3774,7 +4580,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-29CC-4026-81F2-D59681DBAECC}"/>
+              <c16:uniqueId val="{00000001-F647-4B8D-A7FD-ABF0D61938D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3795,7 +4601,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart Sprint4'!$D$5:$K$5</c:f>
+              <c:f>'[1]Burndown Chart Sprint4'!$D$5:$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3827,30 +4633,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint4'!$D$28:$K$28</c:f>
+              <c:f>'[1]Burndown Chart Sprint4'!$D$53:$K$53</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>10</c:v>
+                <c:pt idx="0">
+                  <c:v>17.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5714285714285712</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1428571428571423</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7142857142857144</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2857142857142856</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8571428571428568</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4285714285714288</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3861,7 +4667,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-29CC-4026-81F2-D59681DBAECC}"/>
+              <c16:uniqueId val="{00000002-F647-4B8D-A7FD-ABF0D61938D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3875,11 +4681,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205809955"/>
-        <c:axId val="953123066"/>
+        <c:axId val="1464094762"/>
+        <c:axId val="1165773373"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205809955"/>
+        <c:axId val="1464094762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3899,7 +4705,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3921,10 +4727,10 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="953123066"/>
+        <c:crossAx val="1165773373"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3932,7 +4738,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="953123066"/>
+        <c:axId val="1165773373"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -3963,7 +4769,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3995,10 +4801,10 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205809955"/>
+        <c:crossAx val="1464094762"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -4020,7 +4826,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5185,21 +5991,23 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>2576946</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9639300" cy="4886325"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1688031270" name="Chart 4" title="Chart">
+        <xdr:cNvPr id="2" name="Chart 3" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026509D64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E13ACF-6ED3-4886-B7C2-4BE4938CC58B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5290,6 +6098,133 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Burndown Chart Sprint1"/>
+      <sheetName val="Burndown Chart Sprint2"/>
+      <sheetName val="Burndown Chart Sprint3"/>
+      <sheetName val="Burndown Chart Sprint4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>Dia 0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Dia 1</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>Dia 2</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>Dia 3</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>Dia 4</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>Dia 5</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>Dia 6</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>Dia 7</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51">
+            <v>0</v>
+          </cell>
+          <cell r="E51">
+            <v>3.05</v>
+          </cell>
+          <cell r="F51">
+            <v>1.65</v>
+          </cell>
+          <cell r="G51">
+            <v>1.75</v>
+          </cell>
+          <cell r="H51">
+            <v>3.4</v>
+          </cell>
+          <cell r="I51">
+            <v>1.5</v>
+          </cell>
+          <cell r="J51">
+            <v>6.35</v>
+          </cell>
+          <cell r="K51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52">
+            <v>17.7</v>
+          </cell>
+          <cell r="E52">
+            <v>14.7</v>
+          </cell>
+          <cell r="F52">
+            <v>13</v>
+          </cell>
+          <cell r="G52">
+            <v>11.3</v>
+          </cell>
+          <cell r="H52">
+            <v>7.9</v>
+          </cell>
+          <cell r="I52">
+            <v>6.4</v>
+          </cell>
+          <cell r="J52">
+            <v>0</v>
+          </cell>
+          <cell r="K52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53">
+            <v>17.7</v>
+          </cell>
+          <cell r="E53">
+            <v>15.2</v>
+          </cell>
+          <cell r="F53">
+            <v>12.6</v>
+          </cell>
+          <cell r="G53">
+            <v>10.1</v>
+          </cell>
+          <cell r="H53">
+            <v>7.6</v>
+          </cell>
+          <cell r="I53">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="J53">
+            <v>2.5</v>
+          </cell>
+          <cell r="K53">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5510,50 +6445,50 @@
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="93"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="97" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -5598,8 +6533,8 @@
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
-      <c r="C5" s="99"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5820,10 +6755,10 @@
       <c r="P11" s="24"/>
     </row>
     <row r="12" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="101"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="26">
         <v>0</v>
       </c>
@@ -5877,10 +6812,10 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="32">
         <f>SUM(D6:D12)</f>
         <v>14</v>
@@ -5935,10 +6870,10 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="90"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="39">
         <f>D13</f>
         <v>14</v>
@@ -7014,40 +7949,40 @@
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
+      <c r="E3" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="97" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -7077,8 +8012,8 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
-      <c r="C5" s="99"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -7308,10 +8243,10 @@
       <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="101"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="26">
         <v>0</v>
       </c>
@@ -7345,10 +8280,10 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="88"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="32">
         <f>SUM(D6:D15)</f>
         <v>6.5</v>
@@ -7383,10 +8318,10 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="39">
         <f>D16</f>
         <v>6.5</v>
@@ -8438,40 +9373,40 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
+      <c r="E3" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="97" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -8500,8 +9435,8 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
-      <c r="C5" s="99"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -8546,11 +9481,11 @@
         <v>0.1</v>
       </c>
       <c r="K6" s="16"/>
-      <c r="L6" s="103" t="str">
+      <c r="L6" s="102" t="str">
         <f t="shared" ref="L6:L37" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M6" s="104"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N37" si="1">SUM(E6:K6)</f>
         <v>0.1</v>
@@ -8581,11 +9516,11 @@
       <c r="I7" s="23"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="103" t="str">
+      <c r="L7" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8620,11 +9555,11 @@
       <c r="K8" s="22">
         <v>0.15</v>
       </c>
-      <c r="L8" s="103" t="str">
+      <c r="L8" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M8" s="104"/>
+      <c r="M8" s="103"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8657,11 +9592,11 @@
         <v>0.25</v>
       </c>
       <c r="K9" s="22"/>
-      <c r="L9" s="103" t="str">
+      <c r="L9" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M9" s="104"/>
+      <c r="M9" s="103"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8694,11 +9629,11 @@
         <v>0.25</v>
       </c>
       <c r="K10" s="22"/>
-      <c r="L10" s="103" t="str">
+      <c r="L10" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M10" s="104"/>
+      <c r="M10" s="103"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8731,11 +9666,11 @@
       <c r="K11" s="22">
         <v>0.25</v>
       </c>
-      <c r="L11" s="103" t="str">
+      <c r="L11" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M11" s="104"/>
+      <c r="M11" s="103"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8766,11 +9701,11 @@
         <v>0.25</v>
       </c>
       <c r="K12" s="22"/>
-      <c r="L12" s="103" t="str">
+      <c r="L12" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M12" s="104"/>
+      <c r="M12" s="103"/>
       <c r="N12" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -8803,11 +9738,11 @@
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="103" t="str">
+      <c r="L13" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M13" s="104"/>
+      <c r="M13" s="103"/>
       <c r="N13" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -8838,11 +9773,11 @@
       <c r="K14" s="22">
         <v>0.2</v>
       </c>
-      <c r="L14" s="103" t="str">
+      <c r="L14" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M14" s="104"/>
+      <c r="M14" s="103"/>
       <c r="N14" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -8875,11 +9810,11 @@
       <c r="K15" s="22">
         <v>0.2</v>
       </c>
-      <c r="L15" s="103" t="str">
+      <c r="L15" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M15" s="104"/>
+      <c r="M15" s="103"/>
       <c r="N15" s="44">
         <f t="shared" si="1"/>
         <v>0.45</v>
@@ -8912,11 +9847,11 @@
         <v>0.3</v>
       </c>
       <c r="K16" s="22"/>
-      <c r="L16" s="103" t="str">
+      <c r="L16" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M16" s="104"/>
+      <c r="M16" s="103"/>
       <c r="N16" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -8949,11 +9884,11 @@
       <c r="K17" s="22">
         <v>0.2</v>
       </c>
-      <c r="L17" s="103" t="str">
+      <c r="L17" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M17" s="104"/>
+      <c r="M17" s="103"/>
       <c r="N17" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -8982,11 +9917,11 @@
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="103" t="str">
+      <c r="L18" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M18" s="104"/>
+      <c r="M18" s="103"/>
       <c r="N18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9019,11 +9954,11 @@
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="103" t="str">
+      <c r="L19" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M19" s="104"/>
+      <c r="M19" s="103"/>
       <c r="N19" s="44">
         <f t="shared" si="1"/>
         <v>0.35</v>
@@ -9060,11 +9995,11 @@
       <c r="K20" s="22">
         <v>0.2</v>
       </c>
-      <c r="L20" s="103" t="str">
+      <c r="L20" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M20" s="104"/>
+      <c r="M20" s="103"/>
       <c r="N20" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9099,11 +10034,11 @@
       <c r="K21" s="22">
         <v>0.2</v>
       </c>
-      <c r="L21" s="103" t="str">
+      <c r="L21" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M21" s="104"/>
+      <c r="M21" s="103"/>
       <c r="N21" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9140,11 +10075,11 @@
       <c r="K22" s="22">
         <v>0.2</v>
       </c>
-      <c r="L22" s="103" t="str">
+      <c r="L22" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M22" s="104"/>
+      <c r="M22" s="103"/>
       <c r="N22" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9175,11 +10110,11 @@
       <c r="K23" s="22">
         <v>0.25</v>
       </c>
-      <c r="L23" s="103" t="str">
+      <c r="L23" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M23" s="104"/>
+      <c r="M23" s="103"/>
       <c r="N23" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -9208,11 +10143,11 @@
       <c r="I24" s="23"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="103" t="str">
+      <c r="L24" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M24" s="104"/>
+      <c r="M24" s="103"/>
       <c r="N24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9243,11 +10178,11 @@
       <c r="I25" s="23"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="103" t="str">
+      <c r="L25" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M25" s="104"/>
+      <c r="M25" s="103"/>
       <c r="N25" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -9280,11 +10215,11 @@
         <v>0.25</v>
       </c>
       <c r="K26" s="22"/>
-      <c r="L26" s="103" t="str">
+      <c r="L26" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M26" s="104"/>
+      <c r="M26" s="103"/>
       <c r="N26" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9319,11 +10254,11 @@
       <c r="K27" s="22">
         <v>0.1</v>
       </c>
-      <c r="L27" s="103" t="str">
+      <c r="L27" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M27" s="104"/>
+      <c r="M27" s="103"/>
       <c r="N27" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9358,11 +10293,11 @@
       <c r="K28" s="22">
         <v>0.1</v>
       </c>
-      <c r="L28" s="103" t="str">
+      <c r="L28" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M28" s="104"/>
+      <c r="M28" s="103"/>
       <c r="N28" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -9393,11 +10328,11 @@
       <c r="K29" s="22">
         <v>0.2</v>
       </c>
-      <c r="L29" s="103" t="str">
+      <c r="L29" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M29" s="104"/>
+      <c r="M29" s="103"/>
       <c r="N29" s="44">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -9426,11 +10361,11 @@
       <c r="I30" s="23"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="103" t="str">
+      <c r="L30" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M30" s="104"/>
+      <c r="M30" s="103"/>
       <c r="N30" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9461,11 +10396,11 @@
       <c r="I31" s="23"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="103" t="str">
+      <c r="L31" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M31" s="104"/>
+      <c r="M31" s="103"/>
       <c r="N31" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -9498,11 +10433,11 @@
       <c r="K32" s="22">
         <v>0.15</v>
       </c>
-      <c r="L32" s="103" t="str">
+      <c r="L32" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M32" s="104"/>
+      <c r="M32" s="103"/>
       <c r="N32" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -9535,11 +10470,11 @@
       <c r="K33" s="49">
         <v>0.15</v>
       </c>
-      <c r="L33" s="103" t="str">
+      <c r="L33" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M33" s="104"/>
+      <c r="M33" s="103"/>
       <c r="N33" s="44">
         <f t="shared" si="1"/>
         <v>0.3</v>
@@ -9570,11 +10505,11 @@
       <c r="K34" s="49">
         <v>0.4</v>
       </c>
-      <c r="L34" s="103" t="str">
+      <c r="L34" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M34" s="104"/>
+      <c r="M34" s="103"/>
       <c r="N34" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -9603,11 +10538,11 @@
       <c r="I35" s="50"/>
       <c r="J35" s="51"/>
       <c r="K35" s="49"/>
-      <c r="L35" s="103" t="str">
+      <c r="L35" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M35" s="104"/>
+      <c r="M35" s="103"/>
       <c r="N35" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9636,11 +10571,11 @@
       <c r="I36" s="50"/>
       <c r="J36" s="51"/>
       <c r="K36" s="49"/>
-      <c r="L36" s="103" t="str">
+      <c r="L36" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT STARTED</v>
       </c>
-      <c r="M36" s="104"/>
+      <c r="M36" s="103"/>
       <c r="N36" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9671,11 +10606,11 @@
       </c>
       <c r="J37" s="51"/>
       <c r="K37" s="49"/>
-      <c r="L37" s="103" t="str">
+      <c r="L37" s="102" t="str">
         <f t="shared" si="0"/>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="M37" s="104"/>
+      <c r="M37" s="103"/>
       <c r="N37" s="44">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -9688,10 +10623,10 @@
       </c>
     </row>
     <row r="38" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="101"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="26">
         <v>0</v>
       </c>
@@ -9725,10 +10660,10 @@
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="88"/>
+      <c r="C39" s="87"/>
       <c r="D39" s="32">
         <f>SUM(D6:D38)</f>
         <v>15.6</v>
@@ -9763,10 +10698,10 @@
       </c>
     </row>
     <row r="40" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="89" t="s">
+      <c r="B40" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="90"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="39">
         <v>15.6</v>
       </c>
@@ -10761,36 +11696,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="L30:M30"/>
@@ -10800,6 +11705,36 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
@@ -10839,8 +11774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P988"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10852,1897 +11787,2703 @@
     <col min="5" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
+    <row r="3" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6">
-        <v>45964</v>
-      </c>
-      <c r="F4" s="6">
-        <v>45965</v>
-      </c>
-      <c r="G4" s="6">
-        <v>45966</v>
-      </c>
-      <c r="H4" s="6">
-        <v>45967</v>
-      </c>
-      <c r="I4" s="6">
-        <v>45968</v>
-      </c>
-      <c r="J4" s="6">
-        <v>45969</v>
-      </c>
-      <c r="K4" s="6">
-        <v>45970</v>
+      <c r="E4" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="125" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="126" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="8" t="s">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="131" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="19">
-        <v>11</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="B6" s="133">
+        <v>14.1</v>
+      </c>
+      <c r="C6" s="134" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="135">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="139"/>
+      <c r="N6" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="133">
+        <v>14.5</v>
+      </c>
+      <c r="C7" s="143" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="144">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="139"/>
+      <c r="N7" s="145">
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="133">
+        <v>14.6</v>
+      </c>
+      <c r="C8" s="143" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="144">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="139"/>
+      <c r="N8" s="146">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="133">
+        <v>15.1</v>
+      </c>
+      <c r="C9" s="147" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="135">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="136">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="139"/>
+      <c r="N9" s="148">
+        <v>0.3</v>
+      </c>
+      <c r="O9" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="133">
+        <v>15.2</v>
+      </c>
+      <c r="C10" s="147" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="144">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="139"/>
+      <c r="N10" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="O10" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="133">
+        <v>15.3</v>
+      </c>
+      <c r="C11" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="144">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="136">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="139"/>
+      <c r="N11" s="149">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="133">
+        <v>15.4</v>
+      </c>
+      <c r="C12" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="135">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="136">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="139"/>
+      <c r="N12" s="150">
+        <v>0.4</v>
+      </c>
+      <c r="O12" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="133">
+        <v>15.5</v>
+      </c>
+      <c r="C13" s="147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="144">
         <v>0.5</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E13" s="136">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="136">
+        <v>0.35</v>
+      </c>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="139"/>
+      <c r="N13" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="133">
+        <v>15.6</v>
+      </c>
+      <c r="C14" s="147" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="144">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="136">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="139"/>
+      <c r="N14" s="152">
+        <v>0.15</v>
+      </c>
+      <c r="O14" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="133">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C15" s="134" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="135">
         <v>0.25</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="103" t="str">
-        <f t="shared" ref="L6:L25" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M6" s="104"/>
-      <c r="N6" s="44">
-        <f t="shared" ref="N6:N25" si="1">SUM(E6:K6)</f>
+      <c r="E15" s="136">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="139"/>
+      <c r="N15" s="145">
         <v>0.25</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O15" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="142">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="133">
+        <v>16.5</v>
+      </c>
+      <c r="C16" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="136">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="139"/>
+      <c r="N16" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="142">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="133">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C17" s="134" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="144">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="136">
+        <v>0.15</v>
+      </c>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="139"/>
+      <c r="N17" s="145">
+        <v>0.25</v>
+      </c>
+      <c r="O17" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="142">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="133">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C18" s="147" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="135">
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="136">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="139"/>
+      <c r="N18" s="148">
+        <v>0.3</v>
+      </c>
+      <c r="O18" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="142">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="133">
+        <v>17.5</v>
+      </c>
+      <c r="C19" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="136">
+        <v>0.15</v>
+      </c>
+      <c r="G19" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="139"/>
+      <c r="N19" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="142">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="133">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C20" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="144">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="139"/>
+      <c r="N20" s="145">
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="142">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="133">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C21" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="135">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="F21" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="139"/>
+      <c r="N21" s="146">
+        <v>0.1</v>
+      </c>
+      <c r="O21" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="142">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="153">
+        <v>18.2</v>
+      </c>
+      <c r="C22" s="143" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="144">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="136">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="139"/>
+      <c r="N22" s="149">
+        <v>0.2</v>
+      </c>
+      <c r="O22" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="44">
-        <v>12</v>
+      <c r="P22" s="142">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
-        <v>14.5</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="14">
+    <row r="23" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="133">
+        <v>18.3</v>
+      </c>
+      <c r="C23" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="144">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="139"/>
+      <c r="N23" s="146">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="142">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="153">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C24" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="135">
         <v>0.5</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="22">
+      <c r="E24" s="136">
         <v>0.25</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M7" s="104"/>
-      <c r="N7" s="44">
-        <f t="shared" si="1"/>
+      <c r="F24" s="136">
         <v>0.25</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="139"/>
+      <c r="N24" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O24" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="142">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="133">
+        <v>18.5</v>
+      </c>
+      <c r="C25" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="136">
+        <v>0</v>
+      </c>
+      <c r="F25" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="136">
+        <v>0.35</v>
+      </c>
+      <c r="H25" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="139"/>
+      <c r="N25" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="44">
-        <v>14</v>
+      <c r="P25" s="142">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
-        <v>15.1</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="20">
+    <row r="26" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="153">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C26" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="144">
+        <v>0.25</v>
+      </c>
+      <c r="E26" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="136">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="139"/>
+      <c r="N26" s="145">
+        <v>0.25</v>
+      </c>
+      <c r="O26" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="142">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="153">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C27" s="147" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="144">
         <v>0.5</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22">
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="137"/>
+      <c r="L27" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M27" s="139"/>
+      <c r="N27" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O27" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="142">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="153">
+        <v>19.2</v>
+      </c>
+      <c r="C28" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="J28" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="K28" s="137"/>
+      <c r="L28" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="139"/>
+      <c r="N28" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O28" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="142">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="153">
+        <v>19.3</v>
+      </c>
+      <c r="C29" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="J29" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="K29" s="137"/>
+      <c r="L29" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" s="139"/>
+      <c r="N29" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="142">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="153">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C30" s="147" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="137"/>
+      <c r="L30" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="139"/>
+      <c r="N30" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" s="142">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="153">
+        <v>19.5</v>
+      </c>
+      <c r="C31" s="147" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="137"/>
+      <c r="L31" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="139"/>
+      <c r="N31" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O31" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="P31" s="142">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="153">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C32" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="137"/>
+      <c r="L32" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" s="139"/>
+      <c r="N32" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O32" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="142">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="153">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C33" s="143" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="137"/>
+      <c r="L33" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" s="139"/>
+      <c r="N33" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O33" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" s="142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="153">
+        <v>20.2</v>
+      </c>
+      <c r="C34" s="143" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="137"/>
+      <c r="L34" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="139"/>
+      <c r="N34" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O34" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" s="142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="153">
+        <v>20.3</v>
+      </c>
+      <c r="C35" s="143" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="137"/>
+      <c r="L35" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" s="139"/>
+      <c r="N35" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O35" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="153">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C36" s="143" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="137"/>
+      <c r="L36" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" s="139"/>
+      <c r="N36" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O36" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="153">
+        <v>20.5</v>
+      </c>
+      <c r="C37" s="143" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="137"/>
+      <c r="L37" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" s="139"/>
+      <c r="N37" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O37" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" s="142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="153">
+        <v>20.6</v>
+      </c>
+      <c r="C38" s="143" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="137"/>
+      <c r="L38" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" s="139"/>
+      <c r="N38" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O38" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="153">
+        <v>21.1</v>
+      </c>
+      <c r="C39" s="147" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="139"/>
+      <c r="N39" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O39" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" s="142">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="153">
+        <v>21.2</v>
+      </c>
+      <c r="C40" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="H40" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="139"/>
+      <c r="N40" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O40" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40" s="142">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="153">
+        <v>21.3</v>
+      </c>
+      <c r="C41" s="147" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="H41" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" s="139"/>
+      <c r="N41" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O41" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="P41" s="142">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="153">
+        <v>21.4</v>
+      </c>
+      <c r="C42" s="147" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" s="139"/>
+      <c r="N42" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O42" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="P42" s="142">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="153">
+        <v>21.5</v>
+      </c>
+      <c r="C43" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" s="139"/>
+      <c r="N43" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O43" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="P43" s="142">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="153">
+        <v>21.6</v>
+      </c>
+      <c r="C44" s="147" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="137"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="137"/>
+      <c r="L44" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" s="139"/>
+      <c r="N44" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O44" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="P44" s="142">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="153">
+        <v>22.1</v>
+      </c>
+      <c r="C45" s="143" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="136">
+        <v>0.15</v>
+      </c>
+      <c r="I45" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="J45" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="K45" s="137"/>
+      <c r="L45" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" s="139"/>
+      <c r="N45" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O45" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="P45" s="142">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="153">
+        <v>22.2</v>
+      </c>
+      <c r="C46" s="143" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="136">
         <v>0.2</v>
       </c>
-      <c r="L8" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M8" s="104"/>
-      <c r="N8" s="44">
-        <f t="shared" si="1"/>
+      <c r="H46" s="136">
         <v>0.2</v>
       </c>
-      <c r="O8" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="44">
-        <v>15</v>
+      <c r="I46" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="J46" s="137"/>
+      <c r="K46" s="137"/>
+      <c r="L46" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M46" s="139"/>
+      <c r="N46" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O46" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="P46" s="142">
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+    <row r="47" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="153">
+        <v>22.3</v>
+      </c>
+      <c r="C47" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="137"/>
+      <c r="F47" s="136">
+        <v>0</v>
+      </c>
+      <c r="G47" s="136">
+        <v>0.2</v>
+      </c>
+      <c r="H47" s="136">
+        <v>0.3</v>
+      </c>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="137"/>
+      <c r="L47" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M47" s="139"/>
+      <c r="N47" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O47" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="P47" s="142">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="153">
+        <v>22.4</v>
+      </c>
+      <c r="C48" s="143" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="136">
+        <v>0.1</v>
+      </c>
+      <c r="I48" s="136">
+        <v>0.4</v>
+      </c>
+      <c r="J48" s="137"/>
+      <c r="K48" s="137"/>
+      <c r="L48" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M48" s="139"/>
+      <c r="N48" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O48" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="P48" s="142">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="153">
+        <v>22.5</v>
+      </c>
+      <c r="C49" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="J49" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="K49" s="137"/>
+      <c r="L49" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" s="139"/>
+      <c r="N49" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O49" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="P49" s="142">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="154">
+        <v>22.6</v>
+      </c>
+      <c r="C50" s="155" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="135">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="157">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="156"/>
+      <c r="L50" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="M50" s="139"/>
+      <c r="N50" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="O50" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="P50" s="142">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="159"/>
+      <c r="D51" s="160">
+        <v>0</v>
+      </c>
+      <c r="E51" s="161">
+        <v>3.05</v>
+      </c>
+      <c r="F51" s="161">
+        <v>1.65</v>
+      </c>
+      <c r="G51" s="161">
+        <v>1.75</v>
+      </c>
+      <c r="H51" s="161">
+        <v>3.4</v>
+      </c>
+      <c r="I51" s="161">
+        <v>1.5</v>
+      </c>
+      <c r="J51" s="161">
+        <v>6.35</v>
+      </c>
+      <c r="K51" s="161">
+        <v>0</v>
+      </c>
+      <c r="L51" s="162"/>
+      <c r="M51" s="141"/>
+    </row>
+    <row r="52" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="164"/>
+      <c r="D52" s="165">
+        <v>17.7</v>
+      </c>
+      <c r="E52" s="166">
+        <v>14.7</v>
+      </c>
+      <c r="F52" s="166">
+        <v>13</v>
+      </c>
+      <c r="G52" s="166">
+        <v>11.3</v>
+      </c>
+      <c r="H52" s="166">
+        <v>7.9</v>
+      </c>
+      <c r="I52" s="166">
+        <v>6.4</v>
+      </c>
+      <c r="J52" s="166">
+        <v>0</v>
+      </c>
+      <c r="K52" s="166">
+        <v>0</v>
+      </c>
+      <c r="L52" s="162"/>
+      <c r="M52" s="141"/>
+    </row>
+    <row r="53" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="167" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="168"/>
+      <c r="D53" s="169">
+        <v>17.7</v>
+      </c>
+      <c r="E53" s="169">
         <v>15.2</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="K9" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M9" s="104"/>
-      <c r="N9" s="44">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
-      </c>
-      <c r="O9" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="44">
-        <v>15</v>
+      <c r="F53" s="169">
+        <v>12.6</v>
+      </c>
+      <c r="G53" s="169">
+        <v>10.1</v>
+      </c>
+      <c r="H53" s="169">
+        <v>7.6</v>
+      </c>
+      <c r="I53" s="169">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J53" s="169">
+        <v>2.5</v>
+      </c>
+      <c r="K53" s="170">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
-        <v>15.3</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M10" s="104"/>
-      <c r="N10" s="44">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="O10" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
-        <v>15.4</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="L11" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M11" s="104"/>
-      <c r="N11" s="44">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="O11" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
-        <v>15.5</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M12" s="104"/>
-      <c r="N12" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
-        <v>15.6</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M13" s="104"/>
-      <c r="N13" s="44">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
-      </c>
-      <c r="O13" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="L14" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M14" s="104"/>
-      <c r="N14" s="44">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="O14" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="44">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19">
-        <v>16.5</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M15" s="104"/>
-      <c r="N15" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="P15" s="44">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M16" s="104"/>
-      <c r="N16" s="44">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="O16" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" s="44">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="L17" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M17" s="104"/>
-      <c r="N17" s="44">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="O17" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="44">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19">
-        <v>17.5</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M18" s="104"/>
-      <c r="N18" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" s="44">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M19" s="104"/>
-      <c r="N19" s="44">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="O19" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="P19" s="44">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="K20" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="L20" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M20" s="104"/>
-      <c r="N20" s="44">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="O20" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" s="44">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47">
-        <v>18.2</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51">
-        <v>0.15</v>
-      </c>
-      <c r="K21" s="49">
-        <v>0.15</v>
-      </c>
-      <c r="L21" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M21" s="104"/>
-      <c r="N21" s="44">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="O21" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="44">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19">
-        <v>18.3</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="49">
-        <v>0.4</v>
-      </c>
-      <c r="L22" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M22" s="104"/>
-      <c r="N22" s="44">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="O22" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="44">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M23" s="104"/>
-      <c r="N23" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="44">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19">
-        <v>18.5</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="M24" s="104"/>
-      <c r="N24" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="44">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="M25" s="104"/>
-      <c r="N25" s="44">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="O25" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="P25" s="44">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="27">
-        <f>SUM(E6:E25)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F26" s="28">
-        <f>SUM(F6:F25)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="28">
-        <f>SUM(G6:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="28">
-        <f>SUM(H6:H25)</f>
-        <v>0.45</v>
-      </c>
-      <c r="I26" s="29">
-        <f>SUM(I6:I25)</f>
-        <v>0.45</v>
-      </c>
-      <c r="J26" s="30">
-        <f>SUM(J6:J25)</f>
-        <v>1.2</v>
-      </c>
-      <c r="K26" s="28">
-        <f>SUM(K6:K25)</f>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="32">
-        <f>SUM(D6:D26)</f>
-        <v>10</v>
-      </c>
-      <c r="E27" s="33">
-        <f>D27-SUM(E6:E25)</f>
-        <v>9.75</v>
-      </c>
-      <c r="F27" s="34">
-        <f>E27-SUM(F6:F25)</f>
-        <v>9.25</v>
-      </c>
-      <c r="G27" s="34">
-        <f>F27-SUM(G6:G25)</f>
-        <v>9.25</v>
-      </c>
-      <c r="H27" s="34">
-        <f>G27-SUM(H6:H25)</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I27" s="35">
-        <f>H27-SUM(I6:I25)</f>
-        <v>8.3500000000000014</v>
-      </c>
-      <c r="J27" s="36">
-        <f>I27-SUM(J6:J25)</f>
-        <v>7.1500000000000012</v>
-      </c>
-      <c r="K27" s="36">
-        <f>J27-SUM(K6:K25)</f>
-        <v>5.4000000000000012</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="39">
-        <f>D27</f>
-        <v>10</v>
-      </c>
-      <c r="E28" s="40">
-        <f>$D$28-($D$28/7*1)</f>
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="F28" s="40">
-        <f>$D$28-($D$28/7*2)</f>
-        <v>7.1428571428571423</v>
-      </c>
-      <c r="G28" s="40">
-        <f>$D$28-($D$28/7*3)</f>
-        <v>5.7142857142857144</v>
-      </c>
-      <c r="H28" s="40">
-        <f>$D$28-($D$28/7*4)</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="I28" s="41">
-        <f>$D$28-($D$28/7*5)</f>
-        <v>2.8571428571428568</v>
-      </c>
-      <c r="J28" s="41">
-        <f>$D$28-($D$28/7*6)</f>
-        <v>1.4285714285714288</v>
-      </c>
-      <c r="K28" s="40">
-        <f>$D$28-($D$28/7*7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:16" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B28:C28"/>
+  <mergeCells count="52">
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
@@ -12750,35 +14491,27 @@
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
-  <conditionalFormatting sqref="L6:L25">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>"DONE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:M25">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"NOT ENOUGH WORK YET"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>"ERROR TO MUCH WORK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
-      <formula>"NOT STARTED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7:N25">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="percentile" val="0.25"/>
-        <cfvo type="formula" val="0.5"/>
-        <color rgb="FF980000"/>
-        <color rgb="FFFFD666"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -12804,40 +14537,40 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
+      <c r="B2" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
+      <c r="E3" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="97" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -12866,8 +14599,8 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="97"/>
-      <c r="C5" s="99"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -12898,7 +14631,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -12918,11 +14651,11 @@
         <v>0.5</v>
       </c>
       <c r="K6" s="22"/>
-      <c r="L6" s="103" t="str">
+      <c r="L6" s="102" t="str">
         <f t="shared" ref="L6:L10" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M6" s="104"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N10" si="1">SUM(E6:K6)</f>
         <v>2</v>
@@ -12935,7 +14668,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="20">
         <v>2</v>
@@ -12955,11 +14688,11 @@
         <v>0.5</v>
       </c>
       <c r="K7" s="22"/>
-      <c r="L7" s="103" t="str">
+      <c r="L7" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -12972,7 +14705,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="20">
         <v>2</v>
@@ -12994,11 +14727,11 @@
         <v>0.1</v>
       </c>
       <c r="K8" s="22"/>
-      <c r="L8" s="103" t="str">
+      <c r="L8" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M8" s="104"/>
+      <c r="M8" s="103"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13011,7 +14744,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="20">
         <v>2</v>
@@ -13025,11 +14758,11 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="103" t="str">
+      <c r="L9" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M9" s="104"/>
+      <c r="M9" s="103"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13041,8 +14774,8 @@
       <c r="B10" s="19">
         <v>27</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>81</v>
+      <c r="C10" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="D10" s="14">
         <v>3</v>
@@ -13060,11 +14793,11 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="103" t="str">
+      <c r="L10" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M10" s="104"/>
+      <c r="M10" s="103"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -13076,8 +14809,8 @@
       <c r="B11" s="19">
         <v>28</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>80</v>
+      <c r="C11" s="52" t="s">
+        <v>79</v>
       </c>
       <c r="D11" s="20">
         <v>2</v>
@@ -13099,11 +14832,11 @@
         <v>0.1</v>
       </c>
       <c r="K11" s="22"/>
-      <c r="L11" s="105" t="str">
+      <c r="L11" s="104" t="str">
         <f>IF(N11=0, "NOT STARTED",IF(N11&gt;D11, "ERROR TO MUCH WORK", IF(N11=D11, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M11" s="106"/>
+      <c r="M11" s="105"/>
       <c r="N11" s="44">
         <f>SUM(E11:K11)</f>
         <v>2</v>
@@ -13115,10 +14848,10 @@
       <c r="B12" s="19">
         <v>29</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="54">
+      <c r="C12" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="53">
         <v>1.6</v>
       </c>
       <c r="E12" s="25"/>
@@ -13132,11 +14865,11 @@
       <c r="K12" s="22">
         <v>0.6</v>
       </c>
-      <c r="L12" s="103" t="str">
+      <c r="L12" s="102" t="str">
         <f t="shared" ref="L12" si="2">IF(N12=0, "NOT STARTED",IF(N12&gt;D12, "ERROR TO MUCH WORK", IF(N12=D12, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M12" s="104"/>
+      <c r="M12" s="103"/>
       <c r="N12" s="44">
         <f t="shared" ref="N12" si="3">SUM(E12:K12)</f>
         <v>1.6</v>
@@ -13148,10 +14881,10 @@
       <c r="B13" s="19">
         <v>30</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="54">
+      <c r="C13" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="53">
         <v>1</v>
       </c>
       <c r="E13" s="25"/>
@@ -13163,11 +14896,11 @@
         <v>1</v>
       </c>
       <c r="K13" s="22"/>
-      <c r="L13" s="105" t="str">
+      <c r="L13" s="104" t="str">
         <f>IF(N13=0, "NOT STARTED",IF(N13&gt;D13, "ERROR TO MUCH WORK", IF(N13=D13, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M13" s="106"/>
+      <c r="M13" s="105"/>
       <c r="N13" s="44">
         <f>SUM(E13:K13)</f>
         <v>1</v>
@@ -13176,10 +14909,10 @@
       <c r="P13" s="44"/>
     </row>
     <row r="14" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="101"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="26">
         <v>0</v>
       </c>
@@ -13213,10 +14946,10 @@
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="88"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="32">
         <f>SUM(D6:D14)</f>
         <v>15.6</v>
@@ -13251,10 +14984,10 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="39">
         <v>15.6</v>
       </c>
@@ -14249,11 +15982,6 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -14264,6 +15992,11 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L13">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
@@ -14303,7 +16036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A8F48E-9C64-4E70-BB5A-3E5673E0A3CB}">
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -14324,106 +16057,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
+      <c r="B2" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="75">
         <v>45978</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="78">
         <v>45979</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="78">
         <v>45980</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="78">
         <v>45981</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="78">
         <v>45982</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="78">
         <v>45983</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="78">
         <v>45984</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="97"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="82" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="81" t="s">
+      <c r="K5" s="80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="84">
+      <c r="B6" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="83">
         <v>2</v>
       </c>
-      <c r="E6" s="77"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="49">
         <v>0.5</v>
       </c>
@@ -14433,18 +16166,18 @@
       <c r="H6" s="51">
         <v>0.5</v>
       </c>
-      <c r="I6" s="80">
+      <c r="I6" s="79">
         <v>0.25</v>
       </c>
       <c r="J6" s="51">
         <v>0.25</v>
       </c>
       <c r="K6" s="51"/>
-      <c r="L6" s="103" t="str">
+      <c r="L6" s="102" t="str">
         <f t="shared" ref="L6:L23" si="0">IF(N6=0, "NOT STARTED",IF(N6&gt;D6, "ERROR TO MUCH WORK", IF(N6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M6" s="104"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="44">
         <f t="shared" ref="N6:N23" si="1">SUM(E6:K6)</f>
         <v>2</v>
@@ -14455,13 +16188,13 @@
       <c r="P6" s="44"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="85">
+      <c r="B7" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="84">
         <v>2</v>
       </c>
       <c r="E7" s="49">
@@ -14479,11 +16212,11 @@
         <v>0.5</v>
       </c>
       <c r="K7" s="22"/>
-      <c r="L7" s="103" t="str">
+      <c r="L7" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="44">
         <f>SUM(E7:K7)</f>
         <v>2</v>
@@ -14494,16 +16227,16 @@
       <c r="P7" s="44"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="85">
+      <c r="B8" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="84">
         <v>2</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="69">
         <v>0.5</v>
       </c>
       <c r="F8" s="22">
@@ -14518,11 +16251,11 @@
       <c r="I8" s="23"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="103" t="str">
+      <c r="L8" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M8" s="104"/>
+      <c r="M8" s="103"/>
       <c r="N8" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -14533,16 +16266,16 @@
       <c r="P8" s="44"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="85">
+      <c r="B9" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="84">
         <v>2</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="69">
         <v>0.5</v>
       </c>
       <c r="F9" s="22">
@@ -14557,31 +16290,31 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="103" t="str">
+      <c r="L9" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M9" s="104"/>
+      <c r="M9" s="103"/>
       <c r="N9" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P9" s="44"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="85">
+      <c r="B10" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="84">
         <v>0.5</v>
       </c>
-      <c r="E10" s="70"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22">
         <v>0.25</v>
@@ -14592,11 +16325,11 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="103" t="str">
+      <c r="L10" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M10" s="104"/>
+      <c r="M10" s="103"/>
       <c r="N10" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -14607,16 +16340,16 @@
       <c r="P10" s="44"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="85">
+      <c r="B11" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="84">
         <v>0.5</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="69">
         <v>0.25</v>
       </c>
       <c r="F11" s="22"/>
@@ -14627,11 +16360,11 @@
       <c r="I11" s="23"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="103" t="str">
+      <c r="L11" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M11" s="104"/>
+      <c r="M11" s="103"/>
       <c r="N11" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -14642,16 +16375,16 @@
       <c r="P11" s="44"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="85">
+      <c r="B12" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="84">
         <v>0.5</v>
       </c>
-      <c r="E12" s="70"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22">
@@ -14662,11 +16395,11 @@
       <c r="K12" s="22">
         <v>0.25</v>
       </c>
-      <c r="L12" s="103" t="str">
+      <c r="L12" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M12" s="104"/>
+      <c r="M12" s="103"/>
       <c r="N12" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -14677,16 +16410,16 @@
       <c r="P12" s="44"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="85">
+      <c r="B13" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="84">
         <v>0.5</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22">
@@ -14697,31 +16430,31 @@
       <c r="K13" s="22">
         <v>0.25</v>
       </c>
-      <c r="L13" s="103" t="str">
+      <c r="L13" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M13" s="104"/>
+      <c r="M13" s="103"/>
       <c r="N13" s="44">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P13" s="44"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="73">
+      <c r="B14" s="72">
         <v>35</v>
       </c>
-      <c r="C14" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="85">
+      <c r="C14" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="84">
         <v>1</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="69">
         <v>0.25</v>
       </c>
       <c r="F14" s="22">
@@ -14732,11 +16465,11 @@
       <c r="I14" s="23"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="103" t="str">
+      <c r="L14" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M14" s="104"/>
+      <c r="M14" s="103"/>
       <c r="N14" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -14747,16 +16480,16 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="73">
+      <c r="B15" s="72">
         <v>36</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="85">
+      <c r="C15" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="84">
         <v>1</v>
       </c>
-      <c r="E15" s="70"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22">
         <v>0.5</v>
@@ -14767,11 +16500,11 @@
       <c r="I15" s="23"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="103" t="str">
+      <c r="L15" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M15" s="104"/>
+      <c r="M15" s="103"/>
       <c r="N15" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -14782,16 +16515,16 @@
       <c r="P15" s="44"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="73" t="s">
-        <v>95</v>
+      <c r="B16" s="72" t="s">
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="85">
+        <v>105</v>
+      </c>
+      <c r="D16" s="84">
         <v>1</v>
       </c>
-      <c r="E16" s="70"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -14802,11 +16535,11 @@
       <c r="K16" s="22">
         <v>0.5</v>
       </c>
-      <c r="L16" s="103" t="str">
+      <c r="L16" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M16" s="104"/>
+      <c r="M16" s="103"/>
       <c r="N16" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -14817,16 +16550,16 @@
       <c r="P16" s="44"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="73" t="s">
-        <v>96</v>
+      <c r="B17" s="72" t="s">
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="85">
+        <v>105</v>
+      </c>
+      <c r="D17" s="84">
         <v>1</v>
       </c>
-      <c r="E17" s="70"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -14837,11 +16570,11 @@
       <c r="K17" s="22">
         <v>0.25</v>
       </c>
-      <c r="L17" s="103" t="str">
+      <c r="L17" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M17" s="104"/>
+      <c r="M17" s="103"/>
       <c r="N17" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -14852,16 +16585,16 @@
       <c r="P17" s="44"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="73" t="s">
-        <v>97</v>
+      <c r="B18" s="72" t="s">
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="85">
+        <v>106</v>
+      </c>
+      <c r="D18" s="84">
         <v>1</v>
       </c>
-      <c r="E18" s="70"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -14870,11 +16603,11 @@
       <c r="K18" s="22">
         <v>1</v>
       </c>
-      <c r="L18" s="103" t="str">
+      <c r="L18" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M18" s="104"/>
+      <c r="M18" s="103"/>
       <c r="N18" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -14885,16 +16618,16 @@
       <c r="P18" s="44"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="73" t="s">
-        <v>98</v>
+      <c r="B19" s="72" t="s">
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="85">
+        <v>106</v>
+      </c>
+      <c r="D19" s="84">
         <v>1</v>
       </c>
-      <c r="E19" s="70"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -14903,31 +16636,31 @@
       <c r="K19" s="22">
         <v>1</v>
       </c>
-      <c r="L19" s="103" t="str">
+      <c r="L19" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M19" s="104"/>
+      <c r="M19" s="103"/>
       <c r="N19" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P19" s="44"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="73">
+      <c r="B20" s="72">
         <v>39</v>
       </c>
-      <c r="C20" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="85">
+      <c r="C20" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="84">
         <v>3</v>
       </c>
-      <c r="E20" s="70"/>
+      <c r="E20" s="69"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -14940,11 +16673,11 @@
       <c r="K20" s="22">
         <v>1</v>
       </c>
-      <c r="L20" s="103" t="str">
+      <c r="L20" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M20" s="104"/>
+      <c r="M20" s="103"/>
       <c r="N20" s="44">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -14955,16 +16688,16 @@
       <c r="P20" s="44"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="73">
+      <c r="B21" s="72">
         <v>40</v>
       </c>
-      <c r="C21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="85">
+      <c r="C21" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="84">
         <v>3</v>
       </c>
-      <c r="E21" s="70"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -14975,11 +16708,11 @@
       <c r="K21" s="22">
         <v>0.5</v>
       </c>
-      <c r="L21" s="103" t="str">
+      <c r="L21" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M21" s="104"/>
+      <c r="M21" s="103"/>
       <c r="N21" s="44">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -14990,16 +16723,16 @@
       <c r="P21" s="44"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="73">
+      <c r="B22" s="72">
         <v>41</v>
       </c>
-      <c r="C22" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="85">
+      <c r="C22" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="84">
         <v>2</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="69">
         <v>0.5</v>
       </c>
       <c r="F22" s="22">
@@ -15012,11 +16745,11 @@
       <c r="I22" s="23"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="103" t="str">
+      <c r="L22" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M22" s="104"/>
+      <c r="M22" s="103"/>
       <c r="N22" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -15027,33 +16760,33 @@
       <c r="P22" s="44"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="74">
+      <c r="B23" s="73">
         <v>42</v>
       </c>
-      <c r="C23" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="86">
+      <c r="C23" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="85">
         <v>2</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="70">
         <v>0.5</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="66">
         <v>0.5</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="66">
         <v>1</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="103" t="str">
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="102" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="M23" s="104"/>
+      <c r="M23" s="103"/>
       <c r="N23" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -15064,343 +16797,328 @@
       <c r="P23" s="44"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="83">
+      <c r="C24" s="107"/>
+      <c r="D24" s="82">
         <v>0</v>
       </c>
-      <c r="E24" s="69">
-        <f>SUM(E6:E23)</f>
+      <c r="E24" s="68">
+        <f t="shared" ref="E24:K24" si="2">SUM(E6:E23)</f>
         <v>3</v>
       </c>
-      <c r="F24" s="69">
-        <f>SUM(F6:F23)</f>
+      <c r="F24" s="68">
+        <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
-      <c r="G24" s="69">
-        <f>SUM(G6:G23)</f>
+      <c r="G24" s="68">
+        <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
-      <c r="H24" s="69">
-        <f>SUM(H6:H23)</f>
+      <c r="H24" s="68">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="I24" s="69">
-        <f>SUM(I6:I23)</f>
+      <c r="I24" s="68">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J24" s="69">
-        <f>SUM(J6:J23)</f>
+      <c r="J24" s="68">
+        <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
-      <c r="K24" s="69">
-        <f>SUM(K6:K23)</f>
+      <c r="K24" s="68">
+        <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
-      <c r="L24" s="103"/>
-      <c r="M24" s="104"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="103"/>
       <c r="N24" s="44"/>
       <c r="O24" s="44"/>
       <c r="P24" s="44"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="64">
+      <c r="C25" s="107"/>
+      <c r="D25" s="63">
         <f>SUM(D6:D24)</f>
         <v>26</v>
       </c>
-      <c r="E25" s="65">
-        <f>D25-SUM(E6:E23)</f>
+      <c r="E25" s="64">
+        <f t="shared" ref="E25:K25" si="3">D25-SUM(E6:E23)</f>
         <v>23</v>
       </c>
-      <c r="F25" s="65">
-        <f>E25-SUM(F6:F23)</f>
+      <c r="F25" s="64">
+        <f t="shared" si="3"/>
         <v>19.75</v>
       </c>
-      <c r="G25" s="65">
-        <f>F25-SUM(G6:G23)</f>
+      <c r="G25" s="64">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H25" s="65">
-        <f>G25-SUM(H6:H23)</f>
+      <c r="H25" s="64">
+        <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="I25" s="65">
-        <f>H25-SUM(I6:I23)</f>
+      <c r="I25" s="64">
+        <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="J25" s="65">
-        <f>I25-SUM(J6:J23)</f>
+      <c r="J25" s="64">
+        <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
-      <c r="K25" s="65">
-        <f>J25-SUM(K6:K23)</f>
+      <c r="K25" s="64">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L25" s="103"/>
-      <c r="M25" s="104"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="103"/>
       <c r="N25" s="44"/>
       <c r="O25" s="44"/>
       <c r="P25" s="44"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="61">
+      <c r="C26" s="110"/>
+      <c r="D26" s="60">
         <f>SUM(D6:D23)</f>
         <v>26</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="61">
         <f>$D$26-($D$26/7*1)</f>
         <v>22.285714285714285</v>
       </c>
-      <c r="F26" s="62">
+      <c r="F26" s="61">
         <f>$D$26-($D$26/7*2)</f>
         <v>18.571428571428569</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="61">
         <f>$D$26-($D$26/7*3)</f>
         <v>14.857142857142858</v>
       </c>
-      <c r="H26" s="62">
+      <c r="H26" s="61">
         <f>$D$26-($D$26/7*4)</f>
         <v>11.142857142857142</v>
       </c>
-      <c r="I26" s="62">
+      <c r="I26" s="61">
         <f>$D$26-($D$26/7*5)</f>
         <v>7.428571428571427</v>
       </c>
-      <c r="J26" s="62">
+      <c r="J26" s="61">
         <f>$D$26-($D$26/7*6)</f>
         <v>3.7142857142857153</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="62">
         <f>$D$26-($D$26/7*7)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="103"/>
-      <c r="M26" s="104"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="103"/>
       <c r="N26" s="44"/>
       <c r="O26" s="44"/>
       <c r="P26" s="44"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="104"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="103"/>
       <c r="N27" s="44"/>
       <c r="O27" s="44"/>
       <c r="P27" s="44"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="104"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="103"/>
       <c r="N28" s="44"/>
       <c r="O28" s="44"/>
       <c r="P28" s="44"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="58"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="104"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="103"/>
       <c r="N29" s="44"/>
       <c r="O29" s="44"/>
       <c r="P29" s="44"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="104"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="103"/>
       <c r="N30" s="44"/>
       <c r="O30" s="44"/>
       <c r="P30" s="44"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="104"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="103"/>
       <c r="N31" s="44"/>
       <c r="O31" s="44"/>
       <c r="P31" s="44"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="104"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="103"/>
       <c r="N32" s="44"/>
       <c r="O32" s="44"/>
       <c r="P32" s="44"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="104"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="103"/>
       <c r="N33" s="44"/>
       <c r="O33" s="44"/>
       <c r="P33" s="44"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="104"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="103"/>
       <c r="N34" s="44"/>
       <c r="O34" s="44"/>
       <c r="P34" s="44"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="104"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="103"/>
       <c r="N35" s="44"/>
       <c r="O35" s="44"/>
       <c r="P35" s="44"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="58"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="104"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="103"/>
       <c r="N36" s="44"/>
       <c r="O36" s="44"/>
       <c r="P36" s="44"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="58"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="104"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="103"/>
       <c r="N37" s="44"/>
       <c r="O37" s="44"/>
       <c r="P37" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
@@ -15413,12 +17131,27 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L25:M25"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:L37">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
